--- a/inputs/distances.xlsx
+++ b/inputs/distances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kilian\TUM\TUM\Bachelor Thesis\Code\simulated annealing\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80057B-C0AE-461D-9453-68EB4605F9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B5395E-67AF-4738-B0D1-64BBAB03113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,8 +1171,8 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
-        <v>3.0840000000000001</v>
+      <c r="C6" s="1">
+        <v>3084</v>
       </c>
       <c r="D6" s="1">
         <v>1537</v>
@@ -1339,8 +1339,8 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10">
-        <v>1.7509999999999999</v>
+      <c r="C10" s="1">
+        <v>1751</v>
       </c>
       <c r="D10">
         <v>922</v>
@@ -1381,8 +1381,8 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11">
-        <v>1.6180000000000001</v>
+      <c r="C11" s="1">
+        <v>1618</v>
       </c>
       <c r="D11">
         <v>824</v>
@@ -1507,8 +1507,8 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
-        <v>1.0740000000000001</v>
+      <c r="C14" s="1">
+        <v>1074</v>
       </c>
       <c r="D14">
         <v>560</v>
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="AK1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AX50" sqref="AX50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10682,7 +10682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/inputs/distances.xlsx
+++ b/inputs/distances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kilian\TUM\TUM\Bachelor Thesis\Code\simulated annealing\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B5395E-67AF-4738-B0D1-64BBAB03113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B68AA8-33E9-44F4-B3B8-196D4B180D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,9 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2444,16 +2442,16 @@
         <v>49</v>
       </c>
       <c r="G36" s="4">
-        <v>37.139888468372298</v>
+        <v>37.104168612727896</v>
       </c>
       <c r="H36" s="4">
-        <v>36.780770974935898</v>
-      </c>
-      <c r="I36">
-        <v>37.139890000000001</v>
-      </c>
-      <c r="J36">
-        <v>36.780769999999997</v>
+        <v>36.778188610452602</v>
+      </c>
+      <c r="I36" s="4">
+        <v>37.104170000000003</v>
+      </c>
+      <c r="J36" s="4">
+        <v>36.778190000000002</v>
       </c>
       <c r="N36">
         <v>37.139890000000001</v>
@@ -3064,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AX50" sqref="AX50"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3332,7 +3330,7 @@
         <v>15597</v>
       </c>
       <c r="AJ2" s="5">
-        <v>8087</v>
+        <v>13210</v>
       </c>
       <c r="AK2" s="5">
         <v>18481</v>
@@ -3353,7 +3351,7 @@
         <v>18577</v>
       </c>
       <c r="AQ2" s="5">
-        <v>10236</v>
+        <v>18133</v>
       </c>
       <c r="AR2" s="5">
         <v>27373</v>
@@ -3365,10 +3363,10 @@
         <v>7771</v>
       </c>
       <c r="AU2" s="5">
-        <v>26838</v>
+        <v>27262</v>
       </c>
       <c r="AV2" s="5">
-        <v>23688</v>
+        <v>24112</v>
       </c>
       <c r="AW2" s="5">
         <v>27231</v>
@@ -3415,7 +3413,7 @@
         <v>782</v>
       </c>
       <c r="M3" s="5">
-        <v>2081</v>
+        <v>1726</v>
       </c>
       <c r="N3" s="5">
         <v>761</v>
@@ -3484,7 +3482,7 @@
         <v>14405</v>
       </c>
       <c r="AJ3" s="5">
-        <v>6895</v>
+        <v>12018</v>
       </c>
       <c r="AK3" s="5">
         <v>17289</v>
@@ -3517,10 +3515,10 @@
         <v>6806</v>
       </c>
       <c r="AU3" s="5">
-        <v>25646</v>
+        <v>26070</v>
       </c>
       <c r="AV3" s="5">
-        <v>22496</v>
+        <v>22920</v>
       </c>
       <c r="AW3" s="5">
         <v>26039</v>
@@ -3636,7 +3634,7 @@
         <v>18044</v>
       </c>
       <c r="AJ4" s="5">
-        <v>15261</v>
+        <v>20270</v>
       </c>
       <c r="AK4" s="5">
         <v>25541</v>
@@ -3788,7 +3786,7 @@
         <v>14723</v>
       </c>
       <c r="AJ5" s="5">
-        <v>7214</v>
+        <v>12336</v>
       </c>
       <c r="AK5" s="5">
         <v>17607</v>
@@ -3821,10 +3819,10 @@
         <v>6897</v>
       </c>
       <c r="AU5" s="5">
-        <v>25964</v>
+        <v>26388</v>
       </c>
       <c r="AV5" s="5">
-        <v>22814</v>
+        <v>23239</v>
       </c>
       <c r="AW5" s="5">
         <v>26357</v>
@@ -3940,7 +3938,7 @@
         <v>14899</v>
       </c>
       <c r="AJ6" s="5">
-        <v>7390</v>
+        <v>12513</v>
       </c>
       <c r="AK6" s="5">
         <v>17783</v>
@@ -3973,10 +3971,10 @@
         <v>7073</v>
       </c>
       <c r="AU6" s="5">
-        <v>26140</v>
+        <v>26564</v>
       </c>
       <c r="AV6" s="5">
-        <v>22991</v>
+        <v>23415</v>
       </c>
       <c r="AW6" s="5">
         <v>26534</v>
@@ -4092,7 +4090,7 @@
         <v>24085</v>
       </c>
       <c r="AJ7" s="5">
-        <v>21302</v>
+        <v>26311</v>
       </c>
       <c r="AK7" s="5">
         <v>31582</v>
@@ -4244,7 +4242,7 @@
         <v>14032</v>
       </c>
       <c r="AJ8" s="5">
-        <v>6523</v>
+        <v>11646</v>
       </c>
       <c r="AK8" s="5">
         <v>16917</v>
@@ -4277,10 +4275,10 @@
         <v>6125</v>
       </c>
       <c r="AU8" s="5">
-        <v>25273</v>
+        <v>25698</v>
       </c>
       <c r="AV8" s="5">
-        <v>22124</v>
+        <v>22548</v>
       </c>
       <c r="AW8" s="5">
         <v>25667</v>
@@ -4396,7 +4394,7 @@
         <v>15009</v>
       </c>
       <c r="AJ9" s="5">
-        <v>7500</v>
+        <v>12623</v>
       </c>
       <c r="AK9" s="5">
         <v>17894</v>
@@ -4429,10 +4427,10 @@
         <v>7184</v>
       </c>
       <c r="AU9" s="5">
-        <v>26250</v>
+        <v>26675</v>
       </c>
       <c r="AV9" s="5">
-        <v>23101</v>
+        <v>23525</v>
       </c>
       <c r="AW9" s="5">
         <v>26644</v>
@@ -4548,7 +4546,7 @@
         <v>22141</v>
       </c>
       <c r="AJ10" s="5">
-        <v>26819</v>
+        <v>31828</v>
       </c>
       <c r="AK10" s="5">
         <v>22249</v>
@@ -4700,7 +4698,7 @@
         <v>13738</v>
       </c>
       <c r="AJ11" s="5">
-        <v>6228</v>
+        <v>11351</v>
       </c>
       <c r="AK11" s="5">
         <v>16622</v>
@@ -4733,10 +4731,10 @@
         <v>6139</v>
       </c>
       <c r="AU11" s="5">
-        <v>24979</v>
+        <v>25403</v>
       </c>
       <c r="AV11" s="5">
-        <v>21829</v>
+        <v>22253</v>
       </c>
       <c r="AW11" s="5">
         <v>25372</v>
@@ -4852,7 +4850,7 @@
         <v>14739</v>
       </c>
       <c r="AJ12" s="5">
-        <v>7230</v>
+        <v>12353</v>
       </c>
       <c r="AK12" s="5">
         <v>17624</v>
@@ -4885,10 +4883,10 @@
         <v>7140</v>
       </c>
       <c r="AU12" s="5">
-        <v>25980</v>
+        <v>26405</v>
       </c>
       <c r="AV12" s="5">
-        <v>22831</v>
+        <v>23255</v>
       </c>
       <c r="AW12" s="5">
         <v>26374</v>
@@ -4905,7 +4903,7 @@
         <v>797</v>
       </c>
       <c r="C13" s="5">
-        <v>2081</v>
+        <v>1726</v>
       </c>
       <c r="D13" s="5">
         <v>19551</v>
@@ -5004,7 +5002,7 @@
         <v>15453</v>
       </c>
       <c r="AJ13" s="5">
-        <v>7944</v>
+        <v>13067</v>
       </c>
       <c r="AK13" s="5">
         <v>18338</v>
@@ -5037,10 +5035,10 @@
         <v>7628</v>
       </c>
       <c r="AU13" s="5">
-        <v>26694</v>
+        <v>27119</v>
       </c>
       <c r="AV13" s="5">
-        <v>23545</v>
+        <v>23969</v>
       </c>
       <c r="AW13" s="5">
         <v>27088</v>
@@ -5156,7 +5154,7 @@
         <v>15192</v>
       </c>
       <c r="AJ14" s="5">
-        <v>7683</v>
+        <v>12805</v>
       </c>
       <c r="AK14" s="5">
         <v>18076</v>
@@ -5168,7 +5166,7 @@
         <v>27682</v>
       </c>
       <c r="AN14" s="5">
-        <v>36190</v>
+        <v>32559</v>
       </c>
       <c r="AO14" s="5">
         <v>9255</v>
@@ -5189,10 +5187,10 @@
         <v>7593</v>
       </c>
       <c r="AU14" s="5">
-        <v>26433</v>
+        <v>26857</v>
       </c>
       <c r="AV14" s="5">
-        <v>23283</v>
+        <v>23707</v>
       </c>
       <c r="AW14" s="5">
         <v>26826</v>
@@ -5308,10 +5306,10 @@
         <v>26401</v>
       </c>
       <c r="AJ15" s="5">
-        <v>30164</v>
+        <v>35173</v>
       </c>
       <c r="AK15" s="5">
-        <v>26510</v>
+        <v>40444</v>
       </c>
       <c r="AL15" s="5">
         <v>24971</v>
@@ -5460,7 +5458,7 @@
         <v>16470</v>
       </c>
       <c r="AJ16" s="5">
-        <v>8961</v>
+        <v>14084</v>
       </c>
       <c r="AK16" s="5">
         <v>19355</v>
@@ -5493,10 +5491,10 @@
         <v>8645</v>
       </c>
       <c r="AU16" s="5">
-        <v>27711</v>
+        <v>28136</v>
       </c>
       <c r="AV16" s="5">
-        <v>24562</v>
+        <v>24986</v>
       </c>
       <c r="AW16" s="5">
         <v>28105</v>
@@ -5612,7 +5610,7 @@
         <v>13675</v>
       </c>
       <c r="AJ17" s="5">
-        <v>6166</v>
+        <v>11288</v>
       </c>
       <c r="AK17" s="5">
         <v>16559</v>
@@ -5645,10 +5643,10 @@
         <v>6358</v>
       </c>
       <c r="AU17" s="5">
-        <v>24916</v>
+        <v>25340</v>
       </c>
       <c r="AV17" s="5">
-        <v>21766</v>
+        <v>22191</v>
       </c>
       <c r="AW17" s="5">
         <v>25309</v>
@@ -5764,7 +5762,7 @@
         <v>19952</v>
       </c>
       <c r="AJ18" s="5">
-        <v>12442</v>
+        <v>17565</v>
       </c>
       <c r="AK18" s="5">
         <v>22836</v>
@@ -5797,10 +5795,10 @@
         <v>5281</v>
       </c>
       <c r="AU18" s="5">
-        <v>31193</v>
+        <v>31617</v>
       </c>
       <c r="AV18" s="5">
-        <v>28043</v>
+        <v>28467</v>
       </c>
       <c r="AW18" s="5">
         <v>31586</v>
@@ -5916,7 +5914,7 @@
         <v>30146</v>
       </c>
       <c r="AJ19" s="5">
-        <v>27363</v>
+        <v>32372</v>
       </c>
       <c r="AK19" s="5">
         <v>37643</v>
@@ -6068,7 +6066,7 @@
         <v>14118</v>
       </c>
       <c r="AJ20" s="5">
-        <v>6609</v>
+        <v>11732</v>
       </c>
       <c r="AK20" s="5">
         <v>17003</v>
@@ -6101,10 +6099,10 @@
         <v>6551</v>
       </c>
       <c r="AU20" s="5">
-        <v>25360</v>
+        <v>25784</v>
       </c>
       <c r="AV20" s="5">
-        <v>22210</v>
+        <v>22634</v>
       </c>
       <c r="AW20" s="5">
         <v>25753</v>
@@ -6220,7 +6218,7 @@
         <v>21259</v>
       </c>
       <c r="AJ21" s="5">
-        <v>13749</v>
+        <v>18872</v>
       </c>
       <c r="AK21" s="5">
         <v>24143</v>
@@ -6253,10 +6251,10 @@
         <v>11940</v>
       </c>
       <c r="AU21" s="5">
-        <v>32500</v>
+        <v>32924</v>
       </c>
       <c r="AV21" s="5">
-        <v>29350</v>
+        <v>29774</v>
       </c>
       <c r="AW21" s="5">
         <v>23856</v>
@@ -6372,7 +6370,7 @@
         <v>14673</v>
       </c>
       <c r="AJ22" s="5">
-        <v>7277</v>
+        <v>12287</v>
       </c>
       <c r="AK22" s="5">
         <v>17557</v>
@@ -6405,10 +6403,10 @@
         <v>15627</v>
       </c>
       <c r="AU22" s="5">
-        <v>15135</v>
+        <v>15559</v>
       </c>
       <c r="AV22" s="5">
-        <v>11985</v>
+        <v>12410</v>
       </c>
       <c r="AW22" s="5">
         <v>15528</v>
@@ -6488,85 +6486,85 @@
         <v>0</v>
       </c>
       <c r="X23" s="5">
-        <v>23579</v>
+        <v>23499</v>
       </c>
       <c r="Y23" s="5">
-        <v>21771</v>
+        <v>21692</v>
       </c>
       <c r="Z23" s="5">
-        <v>9693</v>
+        <v>9614</v>
       </c>
       <c r="AA23" s="5">
-        <v>25861</v>
+        <v>25781</v>
       </c>
       <c r="AB23" s="5">
-        <v>13550</v>
+        <v>13470</v>
       </c>
       <c r="AC23" s="5">
-        <v>8727</v>
+        <v>8647</v>
       </c>
       <c r="AD23" s="5">
-        <v>29359</v>
+        <v>29279</v>
       </c>
       <c r="AE23" s="5">
-        <v>14999</v>
+        <v>14920</v>
       </c>
       <c r="AF23" s="5">
-        <v>15962</v>
+        <v>15883</v>
       </c>
       <c r="AG23" s="5">
-        <v>18733</v>
+        <v>18653</v>
       </c>
       <c r="AH23" s="5">
-        <v>18265</v>
+        <v>18186</v>
       </c>
       <c r="AI23" s="5">
-        <v>16269</v>
+        <v>16190</v>
       </c>
       <c r="AJ23" s="5">
-        <v>8760</v>
+        <v>13804</v>
       </c>
       <c r="AK23" s="5">
-        <v>19154</v>
+        <v>19075</v>
       </c>
       <c r="AL23" s="5">
-        <v>18607</v>
+        <v>18528</v>
       </c>
       <c r="AM23" s="5">
-        <v>28759</v>
+        <v>28680</v>
       </c>
       <c r="AN23" s="5">
-        <v>33636</v>
+        <v>33557</v>
       </c>
       <c r="AO23" s="5">
-        <v>11896</v>
+        <v>11816</v>
       </c>
       <c r="AP23" s="5">
-        <v>19250</v>
+        <v>19171</v>
       </c>
       <c r="AQ23" s="5">
-        <v>18806</v>
+        <v>18727</v>
       </c>
       <c r="AR23" s="5">
-        <v>28046</v>
+        <v>27966</v>
       </c>
       <c r="AS23" s="5">
-        <v>35508</v>
+        <v>35429</v>
       </c>
       <c r="AT23" s="5">
         <v>6436</v>
       </c>
       <c r="AU23" s="5">
-        <v>27510</v>
+        <v>27856</v>
       </c>
       <c r="AV23" s="5">
-        <v>24361</v>
+        <v>24706</v>
       </c>
       <c r="AW23" s="5">
-        <v>27904</v>
+        <v>27825</v>
       </c>
       <c r="AX23" s="5">
-        <v>20110</v>
+        <v>20031</v>
       </c>
     </row>
     <row r="24" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6637,7 +6635,7 @@
         <v>11203</v>
       </c>
       <c r="W24" s="5">
-        <v>23579</v>
+        <v>23499</v>
       </c>
       <c r="X24" s="5">
         <v>0</v>
@@ -6676,7 +6674,7 @@
         <v>21128</v>
       </c>
       <c r="AJ24" s="5">
-        <v>18248</v>
+        <v>23257</v>
       </c>
       <c r="AK24" s="5">
         <v>28528</v>
@@ -6709,10 +6707,10 @@
         <v>26597</v>
       </c>
       <c r="AU24" s="5">
-        <v>21959</v>
+        <v>22383</v>
       </c>
       <c r="AV24" s="5">
-        <v>18809</v>
+        <v>19233</v>
       </c>
       <c r="AW24" s="5">
         <v>4408</v>
@@ -6789,7 +6787,7 @@
         <v>9395</v>
       </c>
       <c r="W25" s="5">
-        <v>21771</v>
+        <v>21692</v>
       </c>
       <c r="X25" s="5">
         <v>16219</v>
@@ -6828,7 +6826,7 @@
         <v>5594</v>
       </c>
       <c r="AJ25" s="5">
-        <v>12985</v>
+        <v>15102</v>
       </c>
       <c r="AK25" s="5">
         <v>11643</v>
@@ -6941,7 +6939,7 @@
         <v>3500</v>
       </c>
       <c r="W26" s="5">
-        <v>9693</v>
+        <v>9614</v>
       </c>
       <c r="X26" s="5">
         <v>14470</v>
@@ -6953,13 +6951,13 @@
         <v>0</v>
       </c>
       <c r="AA26" s="5">
-        <v>21349</v>
+        <v>21570</v>
       </c>
       <c r="AB26" s="5">
         <v>13008</v>
       </c>
       <c r="AC26" s="5">
-        <v>4215</v>
+        <v>4436</v>
       </c>
       <c r="AD26" s="5">
         <v>20114</v>
@@ -6968,7 +6966,7 @@
         <v>5890</v>
       </c>
       <c r="AF26" s="5">
-        <v>11451</v>
+        <v>11671</v>
       </c>
       <c r="AG26" s="5">
         <v>18760</v>
@@ -6977,13 +6975,13 @@
         <v>9157</v>
       </c>
       <c r="AI26" s="5">
-        <v>11758</v>
+        <v>11978</v>
       </c>
       <c r="AJ26" s="5">
-        <v>4362</v>
+        <v>9592</v>
       </c>
       <c r="AK26" s="5">
-        <v>14642</v>
+        <v>14863</v>
       </c>
       <c r="AL26" s="5">
         <v>9498</v>
@@ -6998,10 +6996,10 @@
         <v>14187</v>
       </c>
       <c r="AP26" s="5">
-        <v>14739</v>
+        <v>14959</v>
       </c>
       <c r="AQ26" s="5">
-        <v>22650</v>
+        <v>22870</v>
       </c>
       <c r="AR26" s="5">
         <v>18937</v>
@@ -7010,13 +7008,13 @@
         <v>26399</v>
       </c>
       <c r="AT26" s="5">
-        <v>12712</v>
+        <v>12932</v>
       </c>
       <c r="AU26" s="5">
-        <v>18402</v>
+        <v>18826</v>
       </c>
       <c r="AV26" s="5">
-        <v>15252</v>
+        <v>15677</v>
       </c>
       <c r="AW26" s="5">
         <v>18795</v>
@@ -7093,7 +7091,7 @@
         <v>17565</v>
       </c>
       <c r="W27" s="5">
-        <v>25861</v>
+        <v>25781</v>
       </c>
       <c r="X27" s="5">
         <v>24388</v>
@@ -7102,7 +7100,7 @@
         <v>8553</v>
       </c>
       <c r="Z27" s="5">
-        <v>21349</v>
+        <v>21570</v>
       </c>
       <c r="AA27" s="5">
         <v>0</v>
@@ -7132,7 +7130,7 @@
         <v>9591</v>
       </c>
       <c r="AJ27" s="5">
-        <v>17180</v>
+        <v>19297</v>
       </c>
       <c r="AK27" s="5">
         <v>9700</v>
@@ -7245,7 +7243,7 @@
         <v>9741</v>
       </c>
       <c r="W28" s="5">
-        <v>13550</v>
+        <v>13470</v>
       </c>
       <c r="X28" s="5">
         <v>8619</v>
@@ -7284,7 +7282,7 @@
         <v>19666</v>
       </c>
       <c r="AJ28" s="5">
-        <v>16785</v>
+        <v>21794</v>
       </c>
       <c r="AK28" s="5">
         <v>27065</v>
@@ -7317,10 +7315,10 @@
         <v>25135</v>
       </c>
       <c r="AU28" s="5">
-        <v>20496</v>
+        <v>20920</v>
       </c>
       <c r="AV28" s="5">
-        <v>17346</v>
+        <v>17771</v>
       </c>
       <c r="AW28" s="5">
         <v>12944</v>
@@ -7397,7 +7395,7 @@
         <v>7130</v>
       </c>
       <c r="W29" s="5">
-        <v>8727</v>
+        <v>8647</v>
       </c>
       <c r="X29" s="5">
         <v>18101</v>
@@ -7406,7 +7404,7 @@
         <v>12938</v>
       </c>
       <c r="Z29" s="5">
-        <v>4215</v>
+        <v>4436</v>
       </c>
       <c r="AA29" s="5">
         <v>17134</v>
@@ -7436,7 +7434,7 @@
         <v>7543</v>
       </c>
       <c r="AJ29" s="5">
-        <v>257</v>
+        <v>5156</v>
       </c>
       <c r="AK29" s="5">
         <v>10427</v>
@@ -7469,10 +7467,10 @@
         <v>11745</v>
       </c>
       <c r="AU29" s="5">
-        <v>22033</v>
+        <v>22457</v>
       </c>
       <c r="AV29" s="5">
-        <v>18883</v>
+        <v>19307</v>
       </c>
       <c r="AW29" s="5">
         <v>22426</v>
@@ -7549,7 +7547,7 @@
         <v>16847</v>
       </c>
       <c r="W30" s="5">
-        <v>29359</v>
+        <v>29279</v>
       </c>
       <c r="X30" s="5">
         <v>23671</v>
@@ -7588,7 +7586,7 @@
         <v>13089</v>
       </c>
       <c r="AJ30" s="5">
-        <v>20678</v>
+        <v>22795</v>
       </c>
       <c r="AK30" s="5">
         <v>13198</v>
@@ -7701,7 +7699,7 @@
         <v>2623</v>
       </c>
       <c r="W31" s="5">
-        <v>14999</v>
+        <v>14920</v>
       </c>
       <c r="X31" s="5">
         <v>13594</v>
@@ -7740,7 +7738,7 @@
         <v>11695</v>
       </c>
       <c r="AJ31" s="5">
-        <v>9668</v>
+        <v>14677</v>
       </c>
       <c r="AK31" s="5">
         <v>19948</v>
@@ -7853,7 +7851,7 @@
         <v>14366</v>
       </c>
       <c r="W32" s="5">
-        <v>15962</v>
+        <v>15883</v>
       </c>
       <c r="X32" s="5">
         <v>25336</v>
@@ -7862,7 +7860,7 @@
         <v>17181</v>
       </c>
       <c r="Z32" s="5">
-        <v>11451</v>
+        <v>11671</v>
       </c>
       <c r="AA32" s="5">
         <v>21376</v>
@@ -7892,7 +7890,7 @@
         <v>11785</v>
       </c>
       <c r="AJ32" s="5">
-        <v>7282</v>
+        <v>3792</v>
       </c>
       <c r="AK32" s="5">
         <v>3355</v>
@@ -7925,10 +7923,10 @@
         <v>18981</v>
       </c>
       <c r="AU32" s="5">
-        <v>29268</v>
+        <v>29692</v>
       </c>
       <c r="AV32" s="5">
-        <v>26118</v>
+        <v>26543</v>
       </c>
       <c r="AW32" s="5">
         <v>29661</v>
@@ -8005,7 +8003,7 @@
         <v>15493</v>
       </c>
       <c r="W33" s="5">
-        <v>18733</v>
+        <v>18653</v>
       </c>
       <c r="X33" s="5">
         <v>14371</v>
@@ -8044,7 +8042,7 @@
         <v>25419</v>
       </c>
       <c r="AJ33" s="5">
-        <v>22538</v>
+        <v>27547</v>
       </c>
       <c r="AK33" s="5">
         <v>32818</v>
@@ -8077,10 +8075,10 @@
         <v>30888</v>
       </c>
       <c r="AU33" s="5">
-        <v>26249</v>
+        <v>26673</v>
       </c>
       <c r="AV33" s="5">
-        <v>23099</v>
+        <v>23524</v>
       </c>
       <c r="AW33" s="5">
         <v>18697</v>
@@ -8157,7 +8155,7 @@
         <v>5890</v>
       </c>
       <c r="W34" s="5">
-        <v>18265</v>
+        <v>18186</v>
       </c>
       <c r="X34" s="5">
         <v>12714</v>
@@ -8196,7 +8194,7 @@
         <v>8415</v>
       </c>
       <c r="AJ34" s="5">
-        <v>12935</v>
+        <v>17944</v>
       </c>
       <c r="AK34" s="5">
         <v>14464</v>
@@ -8309,7 +8307,7 @@
         <v>14673</v>
       </c>
       <c r="W35" s="5">
-        <v>16269</v>
+        <v>16190</v>
       </c>
       <c r="X35" s="5">
         <v>21128</v>
@@ -8318,7 +8316,7 @@
         <v>5594</v>
       </c>
       <c r="Z35" s="5">
-        <v>11758</v>
+        <v>11978</v>
       </c>
       <c r="AA35" s="5">
         <v>9591</v>
@@ -8348,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="5">
-        <v>7589</v>
+        <v>9706</v>
       </c>
       <c r="AK35" s="5">
         <v>6049</v>
@@ -8398,151 +8396,151 @@
         <v>98</v>
       </c>
       <c r="B36" s="5">
-        <v>8087</v>
+        <v>13210</v>
       </c>
       <c r="C36" s="5">
-        <v>6895</v>
+        <v>12018</v>
       </c>
       <c r="D36" s="5">
-        <v>15261</v>
+        <v>20270</v>
       </c>
       <c r="E36" s="5">
-        <v>7214</v>
+        <v>12336</v>
       </c>
       <c r="F36" s="5">
-        <v>7390</v>
+        <v>12513</v>
       </c>
       <c r="G36" s="5">
-        <v>21302</v>
+        <v>26311</v>
       </c>
       <c r="H36" s="5">
-        <v>6523</v>
+        <v>11646</v>
       </c>
       <c r="I36" s="5">
-        <v>7500</v>
+        <v>12623</v>
       </c>
       <c r="J36" s="5">
-        <v>26819</v>
+        <v>31828</v>
       </c>
       <c r="K36" s="5">
-        <v>6228</v>
+        <v>11351</v>
       </c>
       <c r="L36" s="5">
-        <v>7230</v>
+        <v>12353</v>
       </c>
       <c r="M36" s="5">
-        <v>7944</v>
+        <v>13067</v>
       </c>
       <c r="N36" s="5">
-        <v>7683</v>
+        <v>12805</v>
       </c>
       <c r="O36" s="5">
-        <v>30164</v>
+        <v>35173</v>
       </c>
       <c r="P36" s="5">
-        <v>8961</v>
+        <v>14084</v>
       </c>
       <c r="Q36" s="5">
-        <v>6166</v>
+        <v>11288</v>
       </c>
       <c r="R36" s="5">
-        <v>12442</v>
+        <v>17565</v>
       </c>
       <c r="S36" s="5">
-        <v>27363</v>
+        <v>32372</v>
       </c>
       <c r="T36" s="5">
-        <v>6609</v>
+        <v>11732</v>
       </c>
       <c r="U36" s="5">
-        <v>13749</v>
+        <v>18872</v>
       </c>
       <c r="V36" s="5">
-        <v>7277</v>
+        <v>12287</v>
       </c>
       <c r="W36" s="5">
-        <v>8760</v>
+        <v>13804</v>
       </c>
       <c r="X36" s="5">
-        <v>18248</v>
+        <v>23257</v>
       </c>
       <c r="Y36" s="5">
-        <v>12985</v>
+        <v>15102</v>
       </c>
       <c r="Z36" s="5">
-        <v>4362</v>
+        <v>9592</v>
       </c>
       <c r="AA36" s="5">
-        <v>17180</v>
+        <v>19297</v>
       </c>
       <c r="AB36" s="5">
-        <v>16785</v>
+        <v>21794</v>
       </c>
       <c r="AC36" s="5">
-        <v>257</v>
+        <v>5156</v>
       </c>
       <c r="AD36" s="5">
-        <v>20678</v>
+        <v>22795</v>
       </c>
       <c r="AE36" s="5">
-        <v>9668</v>
+        <v>14677</v>
       </c>
       <c r="AF36" s="5">
-        <v>7282</v>
+        <v>3792</v>
       </c>
       <c r="AG36" s="5">
-        <v>22538</v>
+        <v>27547</v>
       </c>
       <c r="AH36" s="5">
-        <v>12935</v>
+        <v>17944</v>
       </c>
       <c r="AI36" s="5">
-        <v>7589</v>
+        <v>9706</v>
       </c>
       <c r="AJ36" s="5">
         <v>0</v>
       </c>
       <c r="AK36" s="5">
-        <v>10429</v>
+        <v>6983</v>
       </c>
       <c r="AL36" s="5">
-        <v>13276</v>
+        <v>18285</v>
       </c>
       <c r="AM36" s="5">
-        <v>23429</v>
+        <v>28438</v>
       </c>
       <c r="AN36" s="5">
-        <v>28306</v>
+        <v>33315</v>
       </c>
       <c r="AO36" s="5">
-        <v>14807</v>
+        <v>19929</v>
       </c>
       <c r="AP36" s="5">
-        <v>10526</v>
+        <v>7080</v>
       </c>
       <c r="AQ36" s="5">
-        <v>21717</v>
+        <v>26840</v>
       </c>
       <c r="AR36" s="5">
-        <v>22715</v>
+        <v>27724</v>
       </c>
       <c r="AS36" s="5">
-        <v>30177</v>
+        <v>35186</v>
       </c>
       <c r="AT36" s="5">
-        <v>11779</v>
+        <v>16901</v>
       </c>
       <c r="AU36" s="5">
-        <v>22180</v>
+        <v>27613</v>
       </c>
       <c r="AV36" s="5">
-        <v>19030</v>
+        <v>24463</v>
       </c>
       <c r="AW36" s="5">
-        <v>22573</v>
+        <v>27582</v>
       </c>
       <c r="AX36" s="5">
-        <v>14779</v>
+        <v>19788</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8589,7 +8587,7 @@
         <v>18076</v>
       </c>
       <c r="O37" s="5">
-        <v>26510</v>
+        <v>40444</v>
       </c>
       <c r="P37" s="5">
         <v>19355</v>
@@ -8613,7 +8611,7 @@
         <v>17557</v>
       </c>
       <c r="W37" s="5">
-        <v>19154</v>
+        <v>19075</v>
       </c>
       <c r="X37" s="5">
         <v>28528</v>
@@ -8622,7 +8620,7 @@
         <v>11643</v>
       </c>
       <c r="Z37" s="5">
-        <v>14642</v>
+        <v>14863</v>
       </c>
       <c r="AA37" s="5">
         <v>9700</v>
@@ -8652,7 +8650,7 @@
         <v>6049</v>
       </c>
       <c r="AJ37" s="5">
-        <v>10429</v>
+        <v>6983</v>
       </c>
       <c r="AK37" s="5">
         <v>0</v>
@@ -8685,10 +8683,10 @@
         <v>22172</v>
       </c>
       <c r="AU37" s="5">
-        <v>24166</v>
+        <v>32884</v>
       </c>
       <c r="AV37" s="5">
-        <v>21016</v>
+        <v>29734</v>
       </c>
       <c r="AW37" s="5">
         <v>32853</v>
@@ -8765,7 +8763,7 @@
         <v>6231</v>
       </c>
       <c r="W38" s="5">
-        <v>18607</v>
+        <v>18528</v>
       </c>
       <c r="X38" s="5">
         <v>5172</v>
@@ -8804,7 +8802,7 @@
         <v>16157</v>
       </c>
       <c r="AJ38" s="5">
-        <v>13276</v>
+        <v>18285</v>
       </c>
       <c r="AK38" s="5">
         <v>23556</v>
@@ -8837,10 +8835,10 @@
         <v>21625</v>
       </c>
       <c r="AU38" s="5">
-        <v>16987</v>
+        <v>17411</v>
       </c>
       <c r="AV38" s="5">
-        <v>13837</v>
+        <v>14262</v>
       </c>
       <c r="AW38" s="5">
         <v>9497</v>
@@ -8917,7 +8915,7 @@
         <v>16384</v>
       </c>
       <c r="W39" s="5">
-        <v>28759</v>
+        <v>28680</v>
       </c>
       <c r="X39" s="5">
         <v>5329</v>
@@ -8956,7 +8954,7 @@
         <v>26212</v>
       </c>
       <c r="AJ39" s="5">
-        <v>23429</v>
+        <v>28438</v>
       </c>
       <c r="AK39" s="5">
         <v>33709</v>
@@ -9042,7 +9040,7 @@
         <v>32820</v>
       </c>
       <c r="N40" s="5">
-        <v>36190</v>
+        <v>32559</v>
       </c>
       <c r="O40" s="5">
         <v>33793</v>
@@ -9069,7 +9067,7 @@
         <v>21261</v>
       </c>
       <c r="W40" s="5">
-        <v>33636</v>
+        <v>33557</v>
       </c>
       <c r="X40" s="5">
         <v>10141</v>
@@ -9108,7 +9106,7 @@
         <v>31186</v>
       </c>
       <c r="AJ40" s="5">
-        <v>28306</v>
+        <v>33315</v>
       </c>
       <c r="AK40" s="5">
         <v>38585</v>
@@ -9221,7 +9219,7 @@
         <v>10920</v>
       </c>
       <c r="W41" s="5">
-        <v>11896</v>
+        <v>11816</v>
       </c>
       <c r="X41" s="5">
         <v>9798</v>
@@ -9260,7 +9258,7 @@
         <v>22316</v>
       </c>
       <c r="AJ41" s="5">
-        <v>14807</v>
+        <v>19929</v>
       </c>
       <c r="AK41" s="5">
         <v>25200</v>
@@ -9293,10 +9291,10 @@
         <v>26314</v>
       </c>
       <c r="AU41" s="5">
-        <v>21675</v>
+        <v>22100</v>
       </c>
       <c r="AV41" s="5">
-        <v>18526</v>
+        <v>18950</v>
       </c>
       <c r="AW41" s="5">
         <v>14124</v>
@@ -9373,7 +9371,7 @@
         <v>17654</v>
       </c>
       <c r="W42" s="5">
-        <v>19250</v>
+        <v>19171</v>
       </c>
       <c r="X42" s="5">
         <v>28624</v>
@@ -9382,7 +9380,7 @@
         <v>20469</v>
       </c>
       <c r="Z42" s="5">
-        <v>14739</v>
+        <v>14959</v>
       </c>
       <c r="AA42" s="5">
         <v>13657</v>
@@ -9412,7 +9410,7 @@
         <v>15073</v>
       </c>
       <c r="AJ42" s="5">
-        <v>10526</v>
+        <v>7080</v>
       </c>
       <c r="AK42" s="5">
         <v>3966</v>
@@ -9445,10 +9443,10 @@
         <v>19694</v>
       </c>
       <c r="AU42" s="5">
-        <v>32556</v>
+        <v>32980</v>
       </c>
       <c r="AV42" s="5">
-        <v>29406</v>
+        <v>29831</v>
       </c>
       <c r="AW42" s="5">
         <v>32949</v>
@@ -9462,7 +9460,7 @@
         <v>113</v>
       </c>
       <c r="B43" s="5">
-        <v>10236</v>
+        <v>18133</v>
       </c>
       <c r="C43" s="5">
         <v>15749</v>
@@ -9525,7 +9523,7 @@
         <v>25565</v>
       </c>
       <c r="W43" s="5">
-        <v>18806</v>
+        <v>18727</v>
       </c>
       <c r="X43" s="5">
         <v>25717</v>
@@ -9534,7 +9532,7 @@
         <v>34728</v>
       </c>
       <c r="Z43" s="5">
-        <v>22650</v>
+        <v>22870</v>
       </c>
       <c r="AA43" s="5">
         <v>38817</v>
@@ -9564,7 +9562,7 @@
         <v>29226</v>
       </c>
       <c r="AJ43" s="5">
-        <v>21717</v>
+        <v>26840</v>
       </c>
       <c r="AK43" s="5">
         <v>32111</v>
@@ -9597,10 +9595,10 @@
         <v>12716</v>
       </c>
       <c r="AU43" s="5">
-        <v>31556</v>
+        <v>31980</v>
       </c>
       <c r="AV43" s="5">
-        <v>28406</v>
+        <v>28831</v>
       </c>
       <c r="AW43" s="5">
         <v>22913</v>
@@ -9677,7 +9675,7 @@
         <v>15670</v>
       </c>
       <c r="W44" s="5">
-        <v>28046</v>
+        <v>27966</v>
       </c>
       <c r="X44" s="5">
         <v>22494</v>
@@ -9716,7 +9714,7 @@
         <v>25498</v>
       </c>
       <c r="AJ44" s="5">
-        <v>22715</v>
+        <v>27724</v>
       </c>
       <c r="AK44" s="5">
         <v>32995</v>
@@ -9752,7 +9750,7 @@
         <v>10881</v>
       </c>
       <c r="AV44" s="5">
-        <v>14009</v>
+        <v>17795</v>
       </c>
       <c r="AW44" s="5">
         <v>20611</v>
@@ -9829,7 +9827,7 @@
         <v>23132</v>
       </c>
       <c r="W45" s="5">
-        <v>35508</v>
+        <v>35429</v>
       </c>
       <c r="X45" s="5">
         <v>12954</v>
@@ -9868,7 +9866,7 @@
         <v>32960</v>
       </c>
       <c r="AJ45" s="5">
-        <v>30177</v>
+        <v>35186</v>
       </c>
       <c r="AK45" s="5">
         <v>40457</v>
@@ -9990,7 +9988,7 @@
         <v>24789</v>
       </c>
       <c r="Z46" s="5">
-        <v>12712</v>
+        <v>12932</v>
       </c>
       <c r="AA46" s="5">
         <v>28879</v>
@@ -10020,7 +10018,7 @@
         <v>19288</v>
       </c>
       <c r="AJ46" s="5">
-        <v>11779</v>
+        <v>16901</v>
       </c>
       <c r="AK46" s="5">
         <v>22172</v>
@@ -10053,10 +10051,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="5">
-        <v>30516</v>
+        <v>30941</v>
       </c>
       <c r="AV46" s="5">
-        <v>27367</v>
+        <v>27791</v>
       </c>
       <c r="AW46" s="5">
         <v>30910</v>
@@ -10070,88 +10068,88 @@
         <v>122</v>
       </c>
       <c r="B47" s="5">
-        <v>26838</v>
+        <v>27262</v>
       </c>
       <c r="C47" s="5">
-        <v>25646</v>
+        <v>26070</v>
       </c>
       <c r="D47" s="5">
         <v>13491</v>
       </c>
       <c r="E47" s="5">
-        <v>25964</v>
+        <v>26388</v>
       </c>
       <c r="F47" s="5">
-        <v>26140</v>
+        <v>26564</v>
       </c>
       <c r="G47" s="5">
         <v>19533</v>
       </c>
       <c r="H47" s="5">
-        <v>25273</v>
+        <v>25698</v>
       </c>
       <c r="I47" s="5">
-        <v>26250</v>
+        <v>26675</v>
       </c>
       <c r="J47" s="5">
         <v>6703</v>
       </c>
       <c r="K47" s="5">
-        <v>24979</v>
+        <v>25403</v>
       </c>
       <c r="L47" s="5">
-        <v>25980</v>
+        <v>26405</v>
       </c>
       <c r="M47" s="5">
-        <v>26694</v>
+        <v>27119</v>
       </c>
       <c r="N47" s="5">
-        <v>26433</v>
+        <v>26857</v>
       </c>
       <c r="O47" s="5">
         <v>10963</v>
       </c>
       <c r="P47" s="5">
-        <v>27711</v>
+        <v>28136</v>
       </c>
       <c r="Q47" s="5">
-        <v>24916</v>
+        <v>25340</v>
       </c>
       <c r="R47" s="5">
-        <v>31193</v>
+        <v>31617</v>
       </c>
       <c r="S47" s="5">
         <v>25593</v>
       </c>
       <c r="T47" s="5">
-        <v>25360</v>
+        <v>25784</v>
       </c>
       <c r="U47" s="5">
-        <v>32500</v>
+        <v>32924</v>
       </c>
       <c r="V47" s="5">
-        <v>15135</v>
+        <v>15559</v>
       </c>
       <c r="W47" s="5">
-        <v>27510</v>
+        <v>27856</v>
       </c>
       <c r="X47" s="5">
-        <v>21959</v>
+        <v>22383</v>
       </c>
       <c r="Y47" s="5">
         <v>13208</v>
       </c>
       <c r="Z47" s="5">
-        <v>18402</v>
+        <v>18826</v>
       </c>
       <c r="AA47" s="5">
         <v>18694</v>
       </c>
       <c r="AB47" s="5">
-        <v>20496</v>
+        <v>20920</v>
       </c>
       <c r="AC47" s="5">
-        <v>22033</v>
+        <v>22457</v>
       </c>
       <c r="AD47" s="5">
         <v>12303</v>
@@ -10160,10 +10158,10 @@
         <v>12525</v>
       </c>
       <c r="AF47" s="5">
-        <v>29268</v>
+        <v>29692</v>
       </c>
       <c r="AG47" s="5">
-        <v>26249</v>
+        <v>26673</v>
       </c>
       <c r="AH47" s="5">
         <v>9702</v>
@@ -10172,13 +10170,13 @@
         <v>18117</v>
       </c>
       <c r="AJ47" s="5">
-        <v>22180</v>
+        <v>27613</v>
       </c>
       <c r="AK47" s="5">
-        <v>24166</v>
+        <v>32884</v>
       </c>
       <c r="AL47" s="5">
-        <v>16987</v>
+        <v>17411</v>
       </c>
       <c r="AM47" s="5">
         <v>21606</v>
@@ -10187,13 +10185,13 @@
         <v>31110</v>
       </c>
       <c r="AO47" s="5">
-        <v>21675</v>
+        <v>22100</v>
       </c>
       <c r="AP47" s="5">
-        <v>32556</v>
+        <v>32980</v>
       </c>
       <c r="AQ47" s="5">
-        <v>31556</v>
+        <v>31980</v>
       </c>
       <c r="AR47" s="5">
         <v>10881</v>
@@ -10202,7 +10200,7 @@
         <v>28354</v>
       </c>
       <c r="AT47" s="5">
-        <v>30516</v>
+        <v>30941</v>
       </c>
       <c r="AU47" s="5">
         <v>0</v>
@@ -10222,88 +10220,88 @@
         <v>124</v>
       </c>
       <c r="B48" s="5">
-        <v>23688</v>
+        <v>24112</v>
       </c>
       <c r="C48" s="5">
-        <v>22496</v>
+        <v>22920</v>
       </c>
       <c r="D48" s="5">
         <v>10342</v>
       </c>
       <c r="E48" s="5">
-        <v>22814</v>
+        <v>23239</v>
       </c>
       <c r="F48" s="5">
-        <v>22991</v>
+        <v>23415</v>
       </c>
       <c r="G48" s="5">
         <v>16383</v>
       </c>
       <c r="H48" s="5">
-        <v>22124</v>
+        <v>22548</v>
       </c>
       <c r="I48" s="5">
-        <v>23101</v>
+        <v>23525</v>
       </c>
       <c r="J48" s="5">
         <v>9830</v>
       </c>
       <c r="K48" s="5">
-        <v>21829</v>
+        <v>22253</v>
       </c>
       <c r="L48" s="5">
-        <v>22831</v>
+        <v>23255</v>
       </c>
       <c r="M48" s="5">
-        <v>23545</v>
+        <v>23969</v>
       </c>
       <c r="N48" s="5">
-        <v>23283</v>
+        <v>23707</v>
       </c>
       <c r="O48" s="5">
         <v>14091</v>
       </c>
       <c r="P48" s="5">
-        <v>24562</v>
+        <v>24986</v>
       </c>
       <c r="Q48" s="5">
-        <v>21766</v>
+        <v>22191</v>
       </c>
       <c r="R48" s="5">
-        <v>28043</v>
+        <v>28467</v>
       </c>
       <c r="S48" s="5">
         <v>22444</v>
       </c>
       <c r="T48" s="5">
-        <v>22210</v>
+        <v>22634</v>
       </c>
       <c r="U48" s="5">
-        <v>29350</v>
+        <v>29774</v>
       </c>
       <c r="V48" s="5">
-        <v>11985</v>
+        <v>12410</v>
       </c>
       <c r="W48" s="5">
-        <v>24361</v>
+        <v>24706</v>
       </c>
       <c r="X48" s="5">
-        <v>18809</v>
+        <v>19233</v>
       </c>
       <c r="Y48" s="5">
         <v>10058</v>
       </c>
       <c r="Z48" s="5">
-        <v>15252</v>
+        <v>15677</v>
       </c>
       <c r="AA48" s="5">
         <v>18227</v>
       </c>
       <c r="AB48" s="5">
-        <v>17346</v>
+        <v>17771</v>
       </c>
       <c r="AC48" s="5">
-        <v>18883</v>
+        <v>19307</v>
       </c>
       <c r="AD48" s="5">
         <v>17510</v>
@@ -10312,10 +10310,10 @@
         <v>9375</v>
       </c>
       <c r="AF48" s="5">
-        <v>26118</v>
+        <v>26543</v>
       </c>
       <c r="AG48" s="5">
-        <v>23099</v>
+        <v>23524</v>
       </c>
       <c r="AH48" s="5">
         <v>6553</v>
@@ -10324,13 +10322,13 @@
         <v>14967</v>
       </c>
       <c r="AJ48" s="5">
-        <v>19030</v>
+        <v>24463</v>
       </c>
       <c r="AK48" s="5">
-        <v>21016</v>
+        <v>29734</v>
       </c>
       <c r="AL48" s="5">
-        <v>13837</v>
+        <v>14262</v>
       </c>
       <c r="AM48" s="5">
         <v>18456</v>
@@ -10339,22 +10337,22 @@
         <v>27961</v>
       </c>
       <c r="AO48" s="5">
-        <v>18526</v>
+        <v>18950</v>
       </c>
       <c r="AP48" s="5">
-        <v>29406</v>
+        <v>29831</v>
       </c>
       <c r="AQ48" s="5">
-        <v>28406</v>
+        <v>28831</v>
       </c>
       <c r="AR48" s="5">
-        <v>14009</v>
+        <v>17795</v>
       </c>
       <c r="AS48" s="5">
         <v>25204</v>
       </c>
       <c r="AT48" s="5">
-        <v>27367</v>
+        <v>27791</v>
       </c>
       <c r="AU48" s="5">
         <v>3128</v>
@@ -10437,7 +10435,7 @@
         <v>15528</v>
       </c>
       <c r="W49" s="5">
-        <v>27904</v>
+        <v>27825</v>
       </c>
       <c r="X49" s="5">
         <v>4408</v>
@@ -10476,7 +10474,7 @@
         <v>25454</v>
       </c>
       <c r="AJ49" s="5">
-        <v>22573</v>
+        <v>27582</v>
       </c>
       <c r="AK49" s="5">
         <v>32853</v>
@@ -10589,7 +10587,7 @@
         <v>7734</v>
       </c>
       <c r="W50" s="5">
-        <v>20110</v>
+        <v>20031</v>
       </c>
       <c r="X50" s="5">
         <v>14558</v>
@@ -10628,7 +10626,7 @@
         <v>11398</v>
       </c>
       <c r="AJ50" s="5">
-        <v>14779</v>
+        <v>19788</v>
       </c>
       <c r="AK50" s="5">
         <v>25059</v>
@@ -10949,7 +10947,7 @@
         <v>15597</v>
       </c>
       <c r="AJ2" s="5">
-        <v>8087</v>
+        <v>13210</v>
       </c>
       <c r="AK2" s="5">
         <v>18481</v>
@@ -10970,7 +10968,7 @@
         <v>18577</v>
       </c>
       <c r="AQ2" s="5">
-        <v>10236</v>
+        <v>18133</v>
       </c>
       <c r="AR2" s="5">
         <v>27373</v>
@@ -10982,10 +10980,10 @@
         <v>7771</v>
       </c>
       <c r="AU2" s="5">
-        <v>26838</v>
+        <v>27262</v>
       </c>
       <c r="AV2" s="5">
-        <v>23688</v>
+        <v>24112</v>
       </c>
       <c r="AW2" s="5">
         <v>27231</v>
@@ -11032,7 +11030,7 @@
         <v>782</v>
       </c>
       <c r="M3" s="5">
-        <v>2081</v>
+        <v>1726</v>
       </c>
       <c r="N3" s="5">
         <v>761</v>
@@ -11101,7 +11099,7 @@
         <v>14405</v>
       </c>
       <c r="AJ3" s="5">
-        <v>6895</v>
+        <v>12018</v>
       </c>
       <c r="AK3" s="5">
         <v>17289</v>
@@ -11134,10 +11132,10 @@
         <v>6806</v>
       </c>
       <c r="AU3" s="5">
-        <v>25646</v>
+        <v>26070</v>
       </c>
       <c r="AV3" s="5">
-        <v>22496</v>
+        <v>22920</v>
       </c>
       <c r="AW3" s="5">
         <v>26039</v>
@@ -11253,7 +11251,7 @@
         <v>18044</v>
       </c>
       <c r="AJ4" s="5">
-        <v>15261</v>
+        <v>20270</v>
       </c>
       <c r="AK4" s="5">
         <v>25541</v>
@@ -11405,7 +11403,7 @@
         <v>14723</v>
       </c>
       <c r="AJ5" s="5">
-        <v>7214</v>
+        <v>12336</v>
       </c>
       <c r="AK5" s="5">
         <v>17607</v>
@@ -11438,10 +11436,10 @@
         <v>6897</v>
       </c>
       <c r="AU5" s="5">
-        <v>25964</v>
+        <v>26388</v>
       </c>
       <c r="AV5" s="5">
-        <v>22814</v>
+        <v>23239</v>
       </c>
       <c r="AW5" s="5">
         <v>26357</v>
@@ -11557,7 +11555,7 @@
         <v>14899</v>
       </c>
       <c r="AJ6" s="5">
-        <v>7390</v>
+        <v>12513</v>
       </c>
       <c r="AK6" s="5">
         <v>17783</v>
@@ -11590,10 +11588,10 @@
         <v>7073</v>
       </c>
       <c r="AU6" s="5">
-        <v>26140</v>
+        <v>26564</v>
       </c>
       <c r="AV6" s="5">
-        <v>22991</v>
+        <v>23415</v>
       </c>
       <c r="AW6" s="5">
         <v>26534</v>
@@ -11709,7 +11707,7 @@
         <v>24085</v>
       </c>
       <c r="AJ7" s="5">
-        <v>21302</v>
+        <v>26311</v>
       </c>
       <c r="AK7" s="5">
         <v>31582</v>
@@ -11861,7 +11859,7 @@
         <v>14032</v>
       </c>
       <c r="AJ8" s="5">
-        <v>6523</v>
+        <v>11646</v>
       </c>
       <c r="AK8" s="5">
         <v>16917</v>
@@ -11894,10 +11892,10 @@
         <v>6125</v>
       </c>
       <c r="AU8" s="5">
-        <v>25273</v>
+        <v>25698</v>
       </c>
       <c r="AV8" s="5">
-        <v>22124</v>
+        <v>22548</v>
       </c>
       <c r="AW8" s="5">
         <v>25667</v>
@@ -12013,7 +12011,7 @@
         <v>15009</v>
       </c>
       <c r="AJ9" s="5">
-        <v>7500</v>
+        <v>12623</v>
       </c>
       <c r="AK9" s="5">
         <v>17894</v>
@@ -12046,10 +12044,10 @@
         <v>7184</v>
       </c>
       <c r="AU9" s="5">
-        <v>26250</v>
+        <v>26675</v>
       </c>
       <c r="AV9" s="5">
-        <v>23101</v>
+        <v>23525</v>
       </c>
       <c r="AW9" s="5">
         <v>26644</v>
@@ -12165,7 +12163,7 @@
         <v>22141</v>
       </c>
       <c r="AJ10" s="5">
-        <v>26819</v>
+        <v>31828</v>
       </c>
       <c r="AK10" s="5">
         <v>22249</v>
@@ -12317,7 +12315,7 @@
         <v>13738</v>
       </c>
       <c r="AJ11" s="5">
-        <v>6228</v>
+        <v>11351</v>
       </c>
       <c r="AK11" s="5">
         <v>16622</v>
@@ -12350,10 +12348,10 @@
         <v>6139</v>
       </c>
       <c r="AU11" s="5">
-        <v>24979</v>
+        <v>25403</v>
       </c>
       <c r="AV11" s="5">
-        <v>21829</v>
+        <v>22253</v>
       </c>
       <c r="AW11" s="5">
         <v>25372</v>
@@ -12469,7 +12467,7 @@
         <v>14739</v>
       </c>
       <c r="AJ12" s="5">
-        <v>7230</v>
+        <v>12353</v>
       </c>
       <c r="AK12" s="5">
         <v>17624</v>
@@ -12502,10 +12500,10 @@
         <v>7140</v>
       </c>
       <c r="AU12" s="5">
-        <v>25980</v>
+        <v>26405</v>
       </c>
       <c r="AV12" s="5">
-        <v>22831</v>
+        <v>23255</v>
       </c>
       <c r="AW12" s="5">
         <v>26374</v>
@@ -12522,7 +12520,7 @@
         <v>797</v>
       </c>
       <c r="C13" s="5">
-        <v>2081</v>
+        <v>1726</v>
       </c>
       <c r="D13" s="5">
         <v>19551</v>
@@ -12621,7 +12619,7 @@
         <v>15453</v>
       </c>
       <c r="AJ13" s="5">
-        <v>7944</v>
+        <v>13067</v>
       </c>
       <c r="AK13" s="5">
         <v>18338</v>
@@ -12654,10 +12652,10 @@
         <v>7628</v>
       </c>
       <c r="AU13" s="5">
-        <v>26694</v>
+        <v>27119</v>
       </c>
       <c r="AV13" s="5">
-        <v>23545</v>
+        <v>23969</v>
       </c>
       <c r="AW13" s="5">
         <v>27088</v>
@@ -12773,7 +12771,7 @@
         <v>15192</v>
       </c>
       <c r="AJ14" s="5">
-        <v>7683</v>
+        <v>12805</v>
       </c>
       <c r="AK14" s="5">
         <v>18076</v>
@@ -12785,7 +12783,7 @@
         <v>27682</v>
       </c>
       <c r="AN14" s="5">
-        <v>36190</v>
+        <v>32559</v>
       </c>
       <c r="AO14" s="5">
         <v>9255</v>
@@ -12806,10 +12804,10 @@
         <v>7593</v>
       </c>
       <c r="AU14" s="5">
-        <v>26433</v>
+        <v>26857</v>
       </c>
       <c r="AV14" s="5">
-        <v>23283</v>
+        <v>23707</v>
       </c>
       <c r="AW14" s="5">
         <v>26826</v>
@@ -12925,10 +12923,10 @@
         <v>26401</v>
       </c>
       <c r="AJ15" s="5">
-        <v>30164</v>
+        <v>35173</v>
       </c>
       <c r="AK15" s="5">
-        <v>26510</v>
+        <v>40444</v>
       </c>
       <c r="AL15" s="5">
         <v>24971</v>
@@ -13077,7 +13075,7 @@
         <v>16470</v>
       </c>
       <c r="AJ16" s="5">
-        <v>8961</v>
+        <v>14084</v>
       </c>
       <c r="AK16" s="5">
         <v>19355</v>
@@ -13110,10 +13108,10 @@
         <v>8645</v>
       </c>
       <c r="AU16" s="5">
-        <v>27711</v>
+        <v>28136</v>
       </c>
       <c r="AV16" s="5">
-        <v>24562</v>
+        <v>24986</v>
       </c>
       <c r="AW16" s="5">
         <v>28105</v>
@@ -13229,7 +13227,7 @@
         <v>13675</v>
       </c>
       <c r="AJ17" s="5">
-        <v>6166</v>
+        <v>11288</v>
       </c>
       <c r="AK17" s="5">
         <v>16559</v>
@@ -13262,10 +13260,10 @@
         <v>6358</v>
       </c>
       <c r="AU17" s="5">
-        <v>24916</v>
+        <v>25340</v>
       </c>
       <c r="AV17" s="5">
-        <v>21766</v>
+        <v>22191</v>
       </c>
       <c r="AW17" s="5">
         <v>25309</v>
@@ -13381,7 +13379,7 @@
         <v>19952</v>
       </c>
       <c r="AJ18" s="5">
-        <v>12442</v>
+        <v>17565</v>
       </c>
       <c r="AK18" s="5">
         <v>22836</v>
@@ -13414,10 +13412,10 @@
         <v>5281</v>
       </c>
       <c r="AU18" s="5">
-        <v>31193</v>
+        <v>31617</v>
       </c>
       <c r="AV18" s="5">
-        <v>28043</v>
+        <v>28467</v>
       </c>
       <c r="AW18" s="5">
         <v>31586</v>
@@ -13533,7 +13531,7 @@
         <v>30146</v>
       </c>
       <c r="AJ19" s="5">
-        <v>27363</v>
+        <v>32372</v>
       </c>
       <c r="AK19" s="5">
         <v>37643</v>
@@ -13685,7 +13683,7 @@
         <v>14118</v>
       </c>
       <c r="AJ20" s="5">
-        <v>6609</v>
+        <v>11732</v>
       </c>
       <c r="AK20" s="5">
         <v>17003</v>
@@ -13718,10 +13716,10 @@
         <v>6551</v>
       </c>
       <c r="AU20" s="5">
-        <v>25360</v>
+        <v>25784</v>
       </c>
       <c r="AV20" s="5">
-        <v>22210</v>
+        <v>22634</v>
       </c>
       <c r="AW20" s="5">
         <v>25753</v>
@@ -13837,7 +13835,7 @@
         <v>21259</v>
       </c>
       <c r="AJ21" s="5">
-        <v>13749</v>
+        <v>18872</v>
       </c>
       <c r="AK21" s="5">
         <v>24143</v>
@@ -13870,10 +13868,10 @@
         <v>11940</v>
       </c>
       <c r="AU21" s="5">
-        <v>32500</v>
+        <v>32924</v>
       </c>
       <c r="AV21" s="5">
-        <v>29350</v>
+        <v>29774</v>
       </c>
       <c r="AW21" s="5">
         <v>23856</v>
@@ -13989,7 +13987,7 @@
         <v>14673</v>
       </c>
       <c r="AJ22" s="5">
-        <v>7277</v>
+        <v>12287</v>
       </c>
       <c r="AK22" s="5">
         <v>17557</v>
@@ -14022,10 +14020,10 @@
         <v>15627</v>
       </c>
       <c r="AU22" s="5">
-        <v>15135</v>
+        <v>15559</v>
       </c>
       <c r="AV22" s="5">
-        <v>11985</v>
+        <v>12410</v>
       </c>
       <c r="AW22" s="5">
         <v>15528</v>
@@ -14105,85 +14103,85 @@
         <v>0</v>
       </c>
       <c r="X23" s="5">
-        <v>23579</v>
+        <v>23499</v>
       </c>
       <c r="Y23" s="5">
-        <v>21771</v>
+        <v>21692</v>
       </c>
       <c r="Z23" s="5">
-        <v>9693</v>
+        <v>9614</v>
       </c>
       <c r="AA23" s="5">
-        <v>25861</v>
+        <v>25781</v>
       </c>
       <c r="AB23" s="5">
-        <v>13550</v>
+        <v>13470</v>
       </c>
       <c r="AC23" s="5">
-        <v>8727</v>
+        <v>8647</v>
       </c>
       <c r="AD23" s="5">
-        <v>29359</v>
+        <v>29279</v>
       </c>
       <c r="AE23" s="5">
-        <v>14999</v>
+        <v>14920</v>
       </c>
       <c r="AF23" s="5">
-        <v>15962</v>
+        <v>15883</v>
       </c>
       <c r="AG23" s="5">
-        <v>18733</v>
+        <v>18653</v>
       </c>
       <c r="AH23" s="5">
-        <v>18265</v>
+        <v>18186</v>
       </c>
       <c r="AI23" s="5">
-        <v>16269</v>
+        <v>16190</v>
       </c>
       <c r="AJ23" s="5">
-        <v>8760</v>
+        <v>13804</v>
       </c>
       <c r="AK23" s="5">
-        <v>19154</v>
+        <v>19075</v>
       </c>
       <c r="AL23" s="5">
-        <v>18607</v>
+        <v>18528</v>
       </c>
       <c r="AM23" s="5">
-        <v>28759</v>
+        <v>28680</v>
       </c>
       <c r="AN23" s="5">
-        <v>33636</v>
+        <v>33557</v>
       </c>
       <c r="AO23" s="5">
-        <v>11896</v>
+        <v>11816</v>
       </c>
       <c r="AP23" s="5">
-        <v>19250</v>
+        <v>19171</v>
       </c>
       <c r="AQ23" s="5">
-        <v>18806</v>
+        <v>18727</v>
       </c>
       <c r="AR23" s="5">
-        <v>28046</v>
+        <v>27966</v>
       </c>
       <c r="AS23" s="5">
-        <v>35508</v>
+        <v>35429</v>
       </c>
       <c r="AT23" s="5">
         <v>6436</v>
       </c>
       <c r="AU23" s="5">
-        <v>27510</v>
+        <v>27856</v>
       </c>
       <c r="AV23" s="5">
-        <v>24361</v>
+        <v>24706</v>
       </c>
       <c r="AW23" s="5">
-        <v>27904</v>
+        <v>27825</v>
       </c>
       <c r="AX23" s="5">
-        <v>20110</v>
+        <v>20031</v>
       </c>
     </row>
     <row r="24" spans="1:50" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -14254,7 +14252,7 @@
         <v>11203</v>
       </c>
       <c r="W24" s="5">
-        <v>23579</v>
+        <v>23499</v>
       </c>
       <c r="X24" s="5">
         <v>0</v>
@@ -14293,7 +14291,7 @@
         <v>21128</v>
       </c>
       <c r="AJ24" s="5">
-        <v>18248</v>
+        <v>23257</v>
       </c>
       <c r="AK24" s="5">
         <v>28528</v>
@@ -14326,10 +14324,10 @@
         <v>26597</v>
       </c>
       <c r="AU24" s="5">
-        <v>21959</v>
+        <v>22383</v>
       </c>
       <c r="AV24" s="5">
-        <v>18809</v>
+        <v>19233</v>
       </c>
       <c r="AW24" s="5">
         <v>4408</v>
@@ -14406,7 +14404,7 @@
         <v>9395</v>
       </c>
       <c r="W25" s="5">
-        <v>21771</v>
+        <v>21692</v>
       </c>
       <c r="X25" s="5">
         <v>16219</v>
@@ -14445,7 +14443,7 @@
         <v>5594</v>
       </c>
       <c r="AJ25" s="5">
-        <v>12985</v>
+        <v>15102</v>
       </c>
       <c r="AK25" s="5">
         <v>11643</v>
@@ -14558,7 +14556,7 @@
         <v>3500</v>
       </c>
       <c r="W26" s="5">
-        <v>9693</v>
+        <v>9614</v>
       </c>
       <c r="X26" s="5">
         <v>14470</v>
@@ -14570,13 +14568,13 @@
         <v>0</v>
       </c>
       <c r="AA26" s="5">
-        <v>21349</v>
+        <v>21570</v>
       </c>
       <c r="AB26" s="5">
         <v>13008</v>
       </c>
       <c r="AC26" s="5">
-        <v>4215</v>
+        <v>4436</v>
       </c>
       <c r="AD26" s="5">
         <v>20114</v>
@@ -14585,7 +14583,7 @@
         <v>5890</v>
       </c>
       <c r="AF26" s="5">
-        <v>11451</v>
+        <v>11671</v>
       </c>
       <c r="AG26" s="5">
         <v>18760</v>
@@ -14594,13 +14592,13 @@
         <v>9157</v>
       </c>
       <c r="AI26" s="5">
-        <v>11758</v>
+        <v>11978</v>
       </c>
       <c r="AJ26" s="5">
-        <v>4362</v>
+        <v>9592</v>
       </c>
       <c r="AK26" s="5">
-        <v>14642</v>
+        <v>14863</v>
       </c>
       <c r="AL26" s="5">
         <v>9498</v>
@@ -14615,10 +14613,10 @@
         <v>14187</v>
       </c>
       <c r="AP26" s="5">
-        <v>14739</v>
+        <v>14959</v>
       </c>
       <c r="AQ26" s="5">
-        <v>22650</v>
+        <v>22870</v>
       </c>
       <c r="AR26" s="5">
         <v>18937</v>
@@ -14627,13 +14625,13 @@
         <v>26399</v>
       </c>
       <c r="AT26" s="5">
-        <v>12712</v>
+        <v>12932</v>
       </c>
       <c r="AU26" s="5">
-        <v>18402</v>
+        <v>18826</v>
       </c>
       <c r="AV26" s="5">
-        <v>15252</v>
+        <v>15677</v>
       </c>
       <c r="AW26" s="5">
         <v>18795</v>
@@ -14710,7 +14708,7 @@
         <v>17565</v>
       </c>
       <c r="W27" s="5">
-        <v>25861</v>
+        <v>25781</v>
       </c>
       <c r="X27" s="5">
         <v>24388</v>
@@ -14719,7 +14717,7 @@
         <v>8553</v>
       </c>
       <c r="Z27" s="5">
-        <v>21349</v>
+        <v>21570</v>
       </c>
       <c r="AA27" s="5">
         <v>0</v>
@@ -14749,7 +14747,7 @@
         <v>9591</v>
       </c>
       <c r="AJ27" s="5">
-        <v>17180</v>
+        <v>19297</v>
       </c>
       <c r="AK27" s="5">
         <v>9700</v>
@@ -14862,7 +14860,7 @@
         <v>9741</v>
       </c>
       <c r="W28" s="5">
-        <v>13550</v>
+        <v>13470</v>
       </c>
       <c r="X28" s="5">
         <v>8619</v>
@@ -14901,7 +14899,7 @@
         <v>19666</v>
       </c>
       <c r="AJ28" s="5">
-        <v>16785</v>
+        <v>21794</v>
       </c>
       <c r="AK28" s="5">
         <v>27065</v>
@@ -14934,10 +14932,10 @@
         <v>25135</v>
       </c>
       <c r="AU28" s="5">
-        <v>20496</v>
+        <v>20920</v>
       </c>
       <c r="AV28" s="5">
-        <v>17346</v>
+        <v>17771</v>
       </c>
       <c r="AW28" s="5">
         <v>12944</v>
@@ -15014,7 +15012,7 @@
         <v>7130</v>
       </c>
       <c r="W29" s="5">
-        <v>8727</v>
+        <v>8647</v>
       </c>
       <c r="X29" s="5">
         <v>18101</v>
@@ -15023,7 +15021,7 @@
         <v>12938</v>
       </c>
       <c r="Z29" s="5">
-        <v>4215</v>
+        <v>4436</v>
       </c>
       <c r="AA29" s="5">
         <v>17134</v>
@@ -15053,7 +15051,7 @@
         <v>7543</v>
       </c>
       <c r="AJ29" s="5">
-        <v>257</v>
+        <v>5156</v>
       </c>
       <c r="AK29" s="5">
         <v>10427</v>
@@ -15086,10 +15084,10 @@
         <v>11745</v>
       </c>
       <c r="AU29" s="5">
-        <v>22033</v>
+        <v>22457</v>
       </c>
       <c r="AV29" s="5">
-        <v>18883</v>
+        <v>19307</v>
       </c>
       <c r="AW29" s="5">
         <v>22426</v>
@@ -15166,7 +15164,7 @@
         <v>16847</v>
       </c>
       <c r="W30" s="5">
-        <v>29359</v>
+        <v>29279</v>
       </c>
       <c r="X30" s="5">
         <v>23671</v>
@@ -15205,7 +15203,7 @@
         <v>13089</v>
       </c>
       <c r="AJ30" s="5">
-        <v>20678</v>
+        <v>22795</v>
       </c>
       <c r="AK30" s="5">
         <v>13198</v>
@@ -15318,7 +15316,7 @@
         <v>2623</v>
       </c>
       <c r="W31" s="5">
-        <v>14999</v>
+        <v>14920</v>
       </c>
       <c r="X31" s="5">
         <v>13594</v>
@@ -15357,7 +15355,7 @@
         <v>11695</v>
       </c>
       <c r="AJ31" s="5">
-        <v>9668</v>
+        <v>14677</v>
       </c>
       <c r="AK31" s="5">
         <v>19948</v>
@@ -15470,7 +15468,7 @@
         <v>14366</v>
       </c>
       <c r="W32" s="5">
-        <v>15962</v>
+        <v>15883</v>
       </c>
       <c r="X32" s="5">
         <v>25336</v>
@@ -15479,7 +15477,7 @@
         <v>17181</v>
       </c>
       <c r="Z32" s="5">
-        <v>11451</v>
+        <v>11671</v>
       </c>
       <c r="AA32" s="5">
         <v>21376</v>
@@ -15509,7 +15507,7 @@
         <v>11785</v>
       </c>
       <c r="AJ32" s="5">
-        <v>7282</v>
+        <v>3792</v>
       </c>
       <c r="AK32" s="5">
         <v>3355</v>
@@ -15542,10 +15540,10 @@
         <v>18981</v>
       </c>
       <c r="AU32" s="5">
-        <v>29268</v>
+        <v>29692</v>
       </c>
       <c r="AV32" s="5">
-        <v>26118</v>
+        <v>26543</v>
       </c>
       <c r="AW32" s="5">
         <v>29661</v>
@@ -15622,7 +15620,7 @@
         <v>15493</v>
       </c>
       <c r="W33" s="5">
-        <v>18733</v>
+        <v>18653</v>
       </c>
       <c r="X33" s="5">
         <v>14371</v>
@@ -15661,7 +15659,7 @@
         <v>25419</v>
       </c>
       <c r="AJ33" s="5">
-        <v>22538</v>
+        <v>27547</v>
       </c>
       <c r="AK33" s="5">
         <v>32818</v>
@@ -15694,10 +15692,10 @@
         <v>30888</v>
       </c>
       <c r="AU33" s="5">
-        <v>26249</v>
+        <v>26673</v>
       </c>
       <c r="AV33" s="5">
-        <v>23099</v>
+        <v>23524</v>
       </c>
       <c r="AW33" s="5">
         <v>18697</v>
@@ -15774,7 +15772,7 @@
         <v>5890</v>
       </c>
       <c r="W34" s="5">
-        <v>18265</v>
+        <v>18186</v>
       </c>
       <c r="X34" s="5">
         <v>12714</v>
@@ -15813,7 +15811,7 @@
         <v>8415</v>
       </c>
       <c r="AJ34" s="5">
-        <v>12935</v>
+        <v>17944</v>
       </c>
       <c r="AK34" s="5">
         <v>14464</v>
@@ -15926,7 +15924,7 @@
         <v>14673</v>
       </c>
       <c r="W35" s="5">
-        <v>16269</v>
+        <v>16190</v>
       </c>
       <c r="X35" s="5">
         <v>21128</v>
@@ -15935,7 +15933,7 @@
         <v>5594</v>
       </c>
       <c r="Z35" s="5">
-        <v>11758</v>
+        <v>11978</v>
       </c>
       <c r="AA35" s="5">
         <v>9591</v>
@@ -15965,7 +15963,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="5">
-        <v>7589</v>
+        <v>9706</v>
       </c>
       <c r="AK35" s="5">
         <v>6049</v>
@@ -16015,151 +16013,151 @@
         <v>164</v>
       </c>
       <c r="B36" s="5">
-        <v>8087</v>
+        <v>13210</v>
       </c>
       <c r="C36" s="5">
-        <v>6895</v>
+        <v>12018</v>
       </c>
       <c r="D36" s="5">
-        <v>15261</v>
+        <v>20270</v>
       </c>
       <c r="E36" s="5">
-        <v>7214</v>
+        <v>12336</v>
       </c>
       <c r="F36" s="5">
-        <v>7390</v>
+        <v>12513</v>
       </c>
       <c r="G36" s="5">
-        <v>21302</v>
+        <v>26311</v>
       </c>
       <c r="H36" s="5">
-        <v>6523</v>
+        <v>11646</v>
       </c>
       <c r="I36" s="5">
-        <v>7500</v>
+        <v>12623</v>
       </c>
       <c r="J36" s="5">
-        <v>26819</v>
+        <v>31828</v>
       </c>
       <c r="K36" s="5">
-        <v>6228</v>
+        <v>11351</v>
       </c>
       <c r="L36" s="5">
-        <v>7230</v>
+        <v>12353</v>
       </c>
       <c r="M36" s="5">
-        <v>7944</v>
+        <v>13067</v>
       </c>
       <c r="N36" s="5">
-        <v>7683</v>
+        <v>12805</v>
       </c>
       <c r="O36" s="5">
-        <v>30164</v>
+        <v>35173</v>
       </c>
       <c r="P36" s="5">
-        <v>8961</v>
+        <v>14084</v>
       </c>
       <c r="Q36" s="5">
-        <v>6166</v>
+        <v>11288</v>
       </c>
       <c r="R36" s="5">
-        <v>12442</v>
+        <v>17565</v>
       </c>
       <c r="S36" s="5">
-        <v>27363</v>
+        <v>32372</v>
       </c>
       <c r="T36" s="5">
-        <v>6609</v>
+        <v>11732</v>
       </c>
       <c r="U36" s="5">
-        <v>13749</v>
+        <v>18872</v>
       </c>
       <c r="V36" s="5">
-        <v>7277</v>
+        <v>12287</v>
       </c>
       <c r="W36" s="5">
-        <v>8760</v>
+        <v>13804</v>
       </c>
       <c r="X36" s="5">
-        <v>18248</v>
+        <v>23257</v>
       </c>
       <c r="Y36" s="5">
-        <v>12985</v>
+        <v>15102</v>
       </c>
       <c r="Z36" s="5">
-        <v>4362</v>
+        <v>9592</v>
       </c>
       <c r="AA36" s="5">
-        <v>17180</v>
+        <v>19297</v>
       </c>
       <c r="AB36" s="5">
-        <v>16785</v>
+        <v>21794</v>
       </c>
       <c r="AC36" s="5">
-        <v>257</v>
+        <v>5156</v>
       </c>
       <c r="AD36" s="5">
-        <v>20678</v>
+        <v>22795</v>
       </c>
       <c r="AE36" s="5">
-        <v>9668</v>
+        <v>14677</v>
       </c>
       <c r="AF36" s="5">
-        <v>7282</v>
+        <v>3792</v>
       </c>
       <c r="AG36" s="5">
-        <v>22538</v>
+        <v>27547</v>
       </c>
       <c r="AH36" s="5">
-        <v>12935</v>
+        <v>17944</v>
       </c>
       <c r="AI36" s="5">
-        <v>7589</v>
+        <v>9706</v>
       </c>
       <c r="AJ36" s="5">
         <v>0</v>
       </c>
       <c r="AK36" s="5">
-        <v>10429</v>
+        <v>6983</v>
       </c>
       <c r="AL36" s="5">
-        <v>13276</v>
+        <v>18285</v>
       </c>
       <c r="AM36" s="5">
-        <v>23429</v>
+        <v>28438</v>
       </c>
       <c r="AN36" s="5">
-        <v>28306</v>
+        <v>33315</v>
       </c>
       <c r="AO36" s="5">
-        <v>14807</v>
+        <v>19929</v>
       </c>
       <c r="AP36" s="5">
-        <v>10526</v>
+        <v>7080</v>
       </c>
       <c r="AQ36" s="5">
-        <v>21717</v>
+        <v>26840</v>
       </c>
       <c r="AR36" s="5">
-        <v>22715</v>
+        <v>27724</v>
       </c>
       <c r="AS36" s="5">
-        <v>30177</v>
+        <v>35186</v>
       </c>
       <c r="AT36" s="5">
-        <v>11779</v>
+        <v>16901</v>
       </c>
       <c r="AU36" s="5">
-        <v>22180</v>
+        <v>27613</v>
       </c>
       <c r="AV36" s="5">
-        <v>19030</v>
+        <v>24463</v>
       </c>
       <c r="AW36" s="5">
-        <v>22573</v>
+        <v>27582</v>
       </c>
       <c r="AX36" s="5">
-        <v>14779</v>
+        <v>19788</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -16206,7 +16204,7 @@
         <v>18076</v>
       </c>
       <c r="O37" s="5">
-        <v>26510</v>
+        <v>40444</v>
       </c>
       <c r="P37" s="5">
         <v>19355</v>
@@ -16230,7 +16228,7 @@
         <v>17557</v>
       </c>
       <c r="W37" s="5">
-        <v>19154</v>
+        <v>19075</v>
       </c>
       <c r="X37" s="5">
         <v>28528</v>
@@ -16239,7 +16237,7 @@
         <v>11643</v>
       </c>
       <c r="Z37" s="5">
-        <v>14642</v>
+        <v>14863</v>
       </c>
       <c r="AA37" s="5">
         <v>9700</v>
@@ -16269,7 +16267,7 @@
         <v>6049</v>
       </c>
       <c r="AJ37" s="5">
-        <v>10429</v>
+        <v>6983</v>
       </c>
       <c r="AK37" s="5">
         <v>0</v>
@@ -16302,10 +16300,10 @@
         <v>22172</v>
       </c>
       <c r="AU37" s="5">
-        <v>24166</v>
+        <v>32884</v>
       </c>
       <c r="AV37" s="5">
-        <v>21016</v>
+        <v>29734</v>
       </c>
       <c r="AW37" s="5">
         <v>32853</v>
@@ -16382,7 +16380,7 @@
         <v>6231</v>
       </c>
       <c r="W38" s="5">
-        <v>18607</v>
+        <v>18528</v>
       </c>
       <c r="X38" s="5">
         <v>5172</v>
@@ -16421,7 +16419,7 @@
         <v>16157</v>
       </c>
       <c r="AJ38" s="5">
-        <v>13276</v>
+        <v>18285</v>
       </c>
       <c r="AK38" s="5">
         <v>23556</v>
@@ -16454,10 +16452,10 @@
         <v>21625</v>
       </c>
       <c r="AU38" s="5">
-        <v>16987</v>
+        <v>17411</v>
       </c>
       <c r="AV38" s="5">
-        <v>13837</v>
+        <v>14262</v>
       </c>
       <c r="AW38" s="5">
         <v>9497</v>
@@ -16534,7 +16532,7 @@
         <v>16384</v>
       </c>
       <c r="W39" s="5">
-        <v>28759</v>
+        <v>28680</v>
       </c>
       <c r="X39" s="5">
         <v>5329</v>
@@ -16573,7 +16571,7 @@
         <v>26212</v>
       </c>
       <c r="AJ39" s="5">
-        <v>23429</v>
+        <v>28438</v>
       </c>
       <c r="AK39" s="5">
         <v>33709</v>
@@ -16659,7 +16657,7 @@
         <v>32820</v>
       </c>
       <c r="N40" s="5">
-        <v>36190</v>
+        <v>32559</v>
       </c>
       <c r="O40" s="5">
         <v>33793</v>
@@ -16686,7 +16684,7 @@
         <v>21261</v>
       </c>
       <c r="W40" s="5">
-        <v>33636</v>
+        <v>33557</v>
       </c>
       <c r="X40" s="5">
         <v>10141</v>
@@ -16725,7 +16723,7 @@
         <v>31186</v>
       </c>
       <c r="AJ40" s="5">
-        <v>28306</v>
+        <v>33315</v>
       </c>
       <c r="AK40" s="5">
         <v>38585</v>
@@ -16838,7 +16836,7 @@
         <v>10920</v>
       </c>
       <c r="W41" s="5">
-        <v>11896</v>
+        <v>11816</v>
       </c>
       <c r="X41" s="5">
         <v>9798</v>
@@ -16877,7 +16875,7 @@
         <v>22316</v>
       </c>
       <c r="AJ41" s="5">
-        <v>14807</v>
+        <v>19929</v>
       </c>
       <c r="AK41" s="5">
         <v>25200</v>
@@ -16910,10 +16908,10 @@
         <v>26314</v>
       </c>
       <c r="AU41" s="5">
-        <v>21675</v>
+        <v>22100</v>
       </c>
       <c r="AV41" s="5">
-        <v>18526</v>
+        <v>18950</v>
       </c>
       <c r="AW41" s="5">
         <v>14124</v>
@@ -16990,7 +16988,7 @@
         <v>17654</v>
       </c>
       <c r="W42" s="5">
-        <v>19250</v>
+        <v>19171</v>
       </c>
       <c r="X42" s="5">
         <v>28624</v>
@@ -16999,7 +16997,7 @@
         <v>20469</v>
       </c>
       <c r="Z42" s="5">
-        <v>14739</v>
+        <v>14959</v>
       </c>
       <c r="AA42" s="5">
         <v>13657</v>
@@ -17029,7 +17027,7 @@
         <v>15073</v>
       </c>
       <c r="AJ42" s="5">
-        <v>10526</v>
+        <v>7080</v>
       </c>
       <c r="AK42" s="5">
         <v>3966</v>
@@ -17062,10 +17060,10 @@
         <v>19694</v>
       </c>
       <c r="AU42" s="5">
-        <v>32556</v>
+        <v>32980</v>
       </c>
       <c r="AV42" s="5">
-        <v>29406</v>
+        <v>29831</v>
       </c>
       <c r="AW42" s="5">
         <v>32949</v>
@@ -17079,7 +17077,7 @@
         <v>171</v>
       </c>
       <c r="B43" s="5">
-        <v>10236</v>
+        <v>18133</v>
       </c>
       <c r="C43" s="5">
         <v>15749</v>
@@ -17142,7 +17140,7 @@
         <v>25565</v>
       </c>
       <c r="W43" s="5">
-        <v>18806</v>
+        <v>18727</v>
       </c>
       <c r="X43" s="5">
         <v>25717</v>
@@ -17151,7 +17149,7 @@
         <v>34728</v>
       </c>
       <c r="Z43" s="5">
-        <v>22650</v>
+        <v>22870</v>
       </c>
       <c r="AA43" s="5">
         <v>38817</v>
@@ -17181,7 +17179,7 @@
         <v>29226</v>
       </c>
       <c r="AJ43" s="5">
-        <v>21717</v>
+        <v>26840</v>
       </c>
       <c r="AK43" s="5">
         <v>32111</v>
@@ -17214,10 +17212,10 @@
         <v>12716</v>
       </c>
       <c r="AU43" s="5">
-        <v>31556</v>
+        <v>31980</v>
       </c>
       <c r="AV43" s="5">
-        <v>28406</v>
+        <v>28831</v>
       </c>
       <c r="AW43" s="5">
         <v>22913</v>
@@ -17294,7 +17292,7 @@
         <v>15670</v>
       </c>
       <c r="W44" s="5">
-        <v>28046</v>
+        <v>27966</v>
       </c>
       <c r="X44" s="5">
         <v>22494</v>
@@ -17333,7 +17331,7 @@
         <v>25498</v>
       </c>
       <c r="AJ44" s="5">
-        <v>22715</v>
+        <v>27724</v>
       </c>
       <c r="AK44" s="5">
         <v>32995</v>
@@ -17369,7 +17367,7 @@
         <v>10881</v>
       </c>
       <c r="AV44" s="5">
-        <v>14009</v>
+        <v>17795</v>
       </c>
       <c r="AW44" s="5">
         <v>20611</v>
@@ -17446,7 +17444,7 @@
         <v>23132</v>
       </c>
       <c r="W45" s="5">
-        <v>35508</v>
+        <v>35429</v>
       </c>
       <c r="X45" s="5">
         <v>12954</v>
@@ -17485,7 +17483,7 @@
         <v>32960</v>
       </c>
       <c r="AJ45" s="5">
-        <v>30177</v>
+        <v>35186</v>
       </c>
       <c r="AK45" s="5">
         <v>40457</v>
@@ -17607,7 +17605,7 @@
         <v>24789</v>
       </c>
       <c r="Z46" s="5">
-        <v>12712</v>
+        <v>12932</v>
       </c>
       <c r="AA46" s="5">
         <v>28879</v>
@@ -17637,7 +17635,7 @@
         <v>19288</v>
       </c>
       <c r="AJ46" s="5">
-        <v>11779</v>
+        <v>16901</v>
       </c>
       <c r="AK46" s="5">
         <v>22172</v>
@@ -17670,10 +17668,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="5">
-        <v>30516</v>
+        <v>30941</v>
       </c>
       <c r="AV46" s="5">
-        <v>27367</v>
+        <v>27791</v>
       </c>
       <c r="AW46" s="5">
         <v>30910</v>
@@ -17687,88 +17685,88 @@
         <v>175</v>
       </c>
       <c r="B47" s="5">
-        <v>26838</v>
+        <v>27262</v>
       </c>
       <c r="C47" s="5">
-        <v>25646</v>
+        <v>26070</v>
       </c>
       <c r="D47" s="5">
         <v>13491</v>
       </c>
       <c r="E47" s="5">
-        <v>25964</v>
+        <v>26388</v>
       </c>
       <c r="F47" s="5">
-        <v>26140</v>
+        <v>26564</v>
       </c>
       <c r="G47" s="5">
         <v>19533</v>
       </c>
       <c r="H47" s="5">
-        <v>25273</v>
+        <v>25698</v>
       </c>
       <c r="I47" s="5">
-        <v>26250</v>
+        <v>26675</v>
       </c>
       <c r="J47" s="5">
         <v>6703</v>
       </c>
       <c r="K47" s="5">
-        <v>24979</v>
+        <v>25403</v>
       </c>
       <c r="L47" s="5">
-        <v>25980</v>
+        <v>26405</v>
       </c>
       <c r="M47" s="5">
-        <v>26694</v>
+        <v>27119</v>
       </c>
       <c r="N47" s="5">
-        <v>26433</v>
+        <v>26857</v>
       </c>
       <c r="O47" s="5">
         <v>10963</v>
       </c>
       <c r="P47" s="5">
-        <v>27711</v>
+        <v>28136</v>
       </c>
       <c r="Q47" s="5">
-        <v>24916</v>
+        <v>25340</v>
       </c>
       <c r="R47" s="5">
-        <v>31193</v>
+        <v>31617</v>
       </c>
       <c r="S47" s="5">
         <v>25593</v>
       </c>
       <c r="T47" s="5">
-        <v>25360</v>
+        <v>25784</v>
       </c>
       <c r="U47" s="5">
-        <v>32500</v>
+        <v>32924</v>
       </c>
       <c r="V47" s="5">
-        <v>15135</v>
+        <v>15559</v>
       </c>
       <c r="W47" s="5">
-        <v>27510</v>
+        <v>27856</v>
       </c>
       <c r="X47" s="5">
-        <v>21959</v>
+        <v>22383</v>
       </c>
       <c r="Y47" s="5">
         <v>13208</v>
       </c>
       <c r="Z47" s="5">
-        <v>18402</v>
+        <v>18826</v>
       </c>
       <c r="AA47" s="5">
         <v>18694</v>
       </c>
       <c r="AB47" s="5">
-        <v>20496</v>
+        <v>20920</v>
       </c>
       <c r="AC47" s="5">
-        <v>22033</v>
+        <v>22457</v>
       </c>
       <c r="AD47" s="5">
         <v>12303</v>
@@ -17777,10 +17775,10 @@
         <v>12525</v>
       </c>
       <c r="AF47" s="5">
-        <v>29268</v>
+        <v>29692</v>
       </c>
       <c r="AG47" s="5">
-        <v>26249</v>
+        <v>26673</v>
       </c>
       <c r="AH47" s="5">
         <v>9702</v>
@@ -17789,13 +17787,13 @@
         <v>18117</v>
       </c>
       <c r="AJ47" s="5">
-        <v>22180</v>
+        <v>27613</v>
       </c>
       <c r="AK47" s="5">
-        <v>24166</v>
+        <v>32884</v>
       </c>
       <c r="AL47" s="5">
-        <v>16987</v>
+        <v>17411</v>
       </c>
       <c r="AM47" s="5">
         <v>21606</v>
@@ -17804,13 +17802,13 @@
         <v>31110</v>
       </c>
       <c r="AO47" s="5">
-        <v>21675</v>
+        <v>22100</v>
       </c>
       <c r="AP47" s="5">
-        <v>32556</v>
+        <v>32980</v>
       </c>
       <c r="AQ47" s="5">
-        <v>31556</v>
+        <v>31980</v>
       </c>
       <c r="AR47" s="5">
         <v>10881</v>
@@ -17819,7 +17817,7 @@
         <v>28354</v>
       </c>
       <c r="AT47" s="5">
-        <v>30516</v>
+        <v>30941</v>
       </c>
       <c r="AU47" s="5">
         <v>0</v>
@@ -17839,88 +17837,88 @@
         <v>176</v>
       </c>
       <c r="B48" s="5">
-        <v>23688</v>
+        <v>24112</v>
       </c>
       <c r="C48" s="5">
-        <v>22496</v>
+        <v>22920</v>
       </c>
       <c r="D48" s="5">
         <v>10342</v>
       </c>
       <c r="E48" s="5">
-        <v>22814</v>
+        <v>23239</v>
       </c>
       <c r="F48" s="5">
-        <v>22991</v>
+        <v>23415</v>
       </c>
       <c r="G48" s="5">
         <v>16383</v>
       </c>
       <c r="H48" s="5">
-        <v>22124</v>
+        <v>22548</v>
       </c>
       <c r="I48" s="5">
-        <v>23101</v>
+        <v>23525</v>
       </c>
       <c r="J48" s="5">
         <v>9830</v>
       </c>
       <c r="K48" s="5">
-        <v>21829</v>
+        <v>22253</v>
       </c>
       <c r="L48" s="5">
-        <v>22831</v>
+        <v>23255</v>
       </c>
       <c r="M48" s="5">
-        <v>23545</v>
+        <v>23969</v>
       </c>
       <c r="N48" s="5">
-        <v>23283</v>
+        <v>23707</v>
       </c>
       <c r="O48" s="5">
         <v>14091</v>
       </c>
       <c r="P48" s="5">
-        <v>24562</v>
+        <v>24986</v>
       </c>
       <c r="Q48" s="5">
-        <v>21766</v>
+        <v>22191</v>
       </c>
       <c r="R48" s="5">
-        <v>28043</v>
+        <v>28467</v>
       </c>
       <c r="S48" s="5">
         <v>22444</v>
       </c>
       <c r="T48" s="5">
-        <v>22210</v>
+        <v>22634</v>
       </c>
       <c r="U48" s="5">
-        <v>29350</v>
+        <v>29774</v>
       </c>
       <c r="V48" s="5">
-        <v>11985</v>
+        <v>12410</v>
       </c>
       <c r="W48" s="5">
-        <v>24361</v>
+        <v>24706</v>
       </c>
       <c r="X48" s="5">
-        <v>18809</v>
+        <v>19233</v>
       </c>
       <c r="Y48" s="5">
         <v>10058</v>
       </c>
       <c r="Z48" s="5">
-        <v>15252</v>
+        <v>15677</v>
       </c>
       <c r="AA48" s="5">
         <v>18227</v>
       </c>
       <c r="AB48" s="5">
-        <v>17346</v>
+        <v>17771</v>
       </c>
       <c r="AC48" s="5">
-        <v>18883</v>
+        <v>19307</v>
       </c>
       <c r="AD48" s="5">
         <v>17510</v>
@@ -17929,10 +17927,10 @@
         <v>9375</v>
       </c>
       <c r="AF48" s="5">
-        <v>26118</v>
+        <v>26543</v>
       </c>
       <c r="AG48" s="5">
-        <v>23099</v>
+        <v>23524</v>
       </c>
       <c r="AH48" s="5">
         <v>6553</v>
@@ -17941,13 +17939,13 @@
         <v>14967</v>
       </c>
       <c r="AJ48" s="5">
-        <v>19030</v>
+        <v>24463</v>
       </c>
       <c r="AK48" s="5">
-        <v>21016</v>
+        <v>29734</v>
       </c>
       <c r="AL48" s="5">
-        <v>13837</v>
+        <v>14262</v>
       </c>
       <c r="AM48" s="5">
         <v>18456</v>
@@ -17956,22 +17954,22 @@
         <v>27961</v>
       </c>
       <c r="AO48" s="5">
-        <v>18526</v>
+        <v>18950</v>
       </c>
       <c r="AP48" s="5">
-        <v>29406</v>
+        <v>29831</v>
       </c>
       <c r="AQ48" s="5">
-        <v>28406</v>
+        <v>28831</v>
       </c>
       <c r="AR48" s="5">
-        <v>14009</v>
+        <v>17795</v>
       </c>
       <c r="AS48" s="5">
         <v>25204</v>
       </c>
       <c r="AT48" s="5">
-        <v>27367</v>
+        <v>27791</v>
       </c>
       <c r="AU48" s="5">
         <v>3128</v>
@@ -18054,7 +18052,7 @@
         <v>15528</v>
       </c>
       <c r="W49" s="5">
-        <v>27904</v>
+        <v>27825</v>
       </c>
       <c r="X49" s="5">
         <v>4408</v>
@@ -18093,7 +18091,7 @@
         <v>25454</v>
       </c>
       <c r="AJ49" s="5">
-        <v>22573</v>
+        <v>27582</v>
       </c>
       <c r="AK49" s="5">
         <v>32853</v>
@@ -18206,7 +18204,7 @@
         <v>7734</v>
       </c>
       <c r="W50" s="5">
-        <v>20110</v>
+        <v>20031</v>
       </c>
       <c r="X50" s="5">
         <v>14558</v>
@@ -18245,7 +18243,7 @@
         <v>11398</v>
       </c>
       <c r="AJ50" s="5">
-        <v>14779</v>
+        <v>19788</v>
       </c>
       <c r="AK50" s="5">
         <v>25059</v>
@@ -18299,8 +18297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:AX50"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AX50" sqref="B2:AX50"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AX50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18409,7 +18407,7 @@
         <v>15597</v>
       </c>
       <c r="AJ2">
-        <v>8087</v>
+        <v>13210</v>
       </c>
       <c r="AK2">
         <v>18481</v>
@@ -18430,7 +18428,7 @@
         <v>18577</v>
       </c>
       <c r="AQ2">
-        <v>10236</v>
+        <v>18133</v>
       </c>
       <c r="AR2">
         <v>27373</v>
@@ -18442,10 +18440,10 @@
         <v>7771</v>
       </c>
       <c r="AU2">
-        <v>26838</v>
+        <v>27262</v>
       </c>
       <c r="AV2">
-        <v>23688</v>
+        <v>24112</v>
       </c>
       <c r="AW2">
         <v>27231</v>
@@ -18489,7 +18487,7 @@
         <v>782</v>
       </c>
       <c r="M3">
-        <v>2081</v>
+        <v>1726</v>
       </c>
       <c r="N3">
         <v>761</v>
@@ -18558,7 +18556,7 @@
         <v>14405</v>
       </c>
       <c r="AJ3">
-        <v>6895</v>
+        <v>12018</v>
       </c>
       <c r="AK3">
         <v>17289</v>
@@ -18591,10 +18589,10 @@
         <v>6806</v>
       </c>
       <c r="AU3">
-        <v>25646</v>
+        <v>26070</v>
       </c>
       <c r="AV3">
-        <v>22496</v>
+        <v>22920</v>
       </c>
       <c r="AW3">
         <v>26039</v>
@@ -18707,7 +18705,7 @@
         <v>18044</v>
       </c>
       <c r="AJ4">
-        <v>15261</v>
+        <v>20270</v>
       </c>
       <c r="AK4">
         <v>25541</v>
@@ -18856,7 +18854,7 @@
         <v>14723</v>
       </c>
       <c r="AJ5">
-        <v>7214</v>
+        <v>12336</v>
       </c>
       <c r="AK5">
         <v>17607</v>
@@ -18889,10 +18887,10 @@
         <v>6897</v>
       </c>
       <c r="AU5">
-        <v>25964</v>
+        <v>26388</v>
       </c>
       <c r="AV5">
-        <v>22814</v>
+        <v>23239</v>
       </c>
       <c r="AW5">
         <v>26357</v>
@@ -19005,7 +19003,7 @@
         <v>14899</v>
       </c>
       <c r="AJ6">
-        <v>7390</v>
+        <v>12513</v>
       </c>
       <c r="AK6">
         <v>17783</v>
@@ -19038,10 +19036,10 @@
         <v>7073</v>
       </c>
       <c r="AU6">
-        <v>26140</v>
+        <v>26564</v>
       </c>
       <c r="AV6">
-        <v>22991</v>
+        <v>23415</v>
       </c>
       <c r="AW6">
         <v>26534</v>
@@ -19154,7 +19152,7 @@
         <v>24085</v>
       </c>
       <c r="AJ7">
-        <v>21302</v>
+        <v>26311</v>
       </c>
       <c r="AK7">
         <v>31582</v>
@@ -19303,7 +19301,7 @@
         <v>14032</v>
       </c>
       <c r="AJ8">
-        <v>6523</v>
+        <v>11646</v>
       </c>
       <c r="AK8">
         <v>16917</v>
@@ -19336,10 +19334,10 @@
         <v>6125</v>
       </c>
       <c r="AU8">
-        <v>25273</v>
+        <v>25698</v>
       </c>
       <c r="AV8">
-        <v>22124</v>
+        <v>22548</v>
       </c>
       <c r="AW8">
         <v>25667</v>
@@ -19452,7 +19450,7 @@
         <v>15009</v>
       </c>
       <c r="AJ9">
-        <v>7500</v>
+        <v>12623</v>
       </c>
       <c r="AK9">
         <v>17894</v>
@@ -19485,10 +19483,10 @@
         <v>7184</v>
       </c>
       <c r="AU9">
-        <v>26250</v>
+        <v>26675</v>
       </c>
       <c r="AV9">
-        <v>23101</v>
+        <v>23525</v>
       </c>
       <c r="AW9">
         <v>26644</v>
@@ -19601,7 +19599,7 @@
         <v>22141</v>
       </c>
       <c r="AJ10">
-        <v>26819</v>
+        <v>31828</v>
       </c>
       <c r="AK10">
         <v>22249</v>
@@ -19750,7 +19748,7 @@
         <v>13738</v>
       </c>
       <c r="AJ11">
-        <v>6228</v>
+        <v>11351</v>
       </c>
       <c r="AK11">
         <v>16622</v>
@@ -19783,10 +19781,10 @@
         <v>6139</v>
       </c>
       <c r="AU11">
-        <v>24979</v>
+        <v>25403</v>
       </c>
       <c r="AV11">
-        <v>21829</v>
+        <v>22253</v>
       </c>
       <c r="AW11">
         <v>25372</v>
@@ -19899,7 +19897,7 @@
         <v>14739</v>
       </c>
       <c r="AJ12">
-        <v>7230</v>
+        <v>12353</v>
       </c>
       <c r="AK12">
         <v>17624</v>
@@ -19932,10 +19930,10 @@
         <v>7140</v>
       </c>
       <c r="AU12">
-        <v>25980</v>
+        <v>26405</v>
       </c>
       <c r="AV12">
-        <v>22831</v>
+        <v>23255</v>
       </c>
       <c r="AW12">
         <v>26374</v>
@@ -19949,7 +19947,7 @@
         <v>797</v>
       </c>
       <c r="C13">
-        <v>2081</v>
+        <v>1726</v>
       </c>
       <c r="D13">
         <v>19551</v>
@@ -20048,7 +20046,7 @@
         <v>15453</v>
       </c>
       <c r="AJ13">
-        <v>7944</v>
+        <v>13067</v>
       </c>
       <c r="AK13">
         <v>18338</v>
@@ -20081,10 +20079,10 @@
         <v>7628</v>
       </c>
       <c r="AU13">
-        <v>26694</v>
+        <v>27119</v>
       </c>
       <c r="AV13">
-        <v>23545</v>
+        <v>23969</v>
       </c>
       <c r="AW13">
         <v>27088</v>
@@ -20197,7 +20195,7 @@
         <v>15192</v>
       </c>
       <c r="AJ14">
-        <v>7683</v>
+        <v>12805</v>
       </c>
       <c r="AK14">
         <v>18076</v>
@@ -20209,7 +20207,7 @@
         <v>27682</v>
       </c>
       <c r="AN14">
-        <v>36190</v>
+        <v>32559</v>
       </c>
       <c r="AO14">
         <v>9255</v>
@@ -20230,10 +20228,10 @@
         <v>7593</v>
       </c>
       <c r="AU14">
-        <v>26433</v>
+        <v>26857</v>
       </c>
       <c r="AV14">
-        <v>23283</v>
+        <v>23707</v>
       </c>
       <c r="AW14">
         <v>26826</v>
@@ -20346,10 +20344,10 @@
         <v>26401</v>
       </c>
       <c r="AJ15">
-        <v>30164</v>
+        <v>35173</v>
       </c>
       <c r="AK15">
-        <v>26510</v>
+        <v>40444</v>
       </c>
       <c r="AL15">
         <v>24971</v>
@@ -20495,7 +20493,7 @@
         <v>16470</v>
       </c>
       <c r="AJ16">
-        <v>8961</v>
+        <v>14084</v>
       </c>
       <c r="AK16">
         <v>19355</v>
@@ -20528,10 +20526,10 @@
         <v>8645</v>
       </c>
       <c r="AU16">
-        <v>27711</v>
+        <v>28136</v>
       </c>
       <c r="AV16">
-        <v>24562</v>
+        <v>24986</v>
       </c>
       <c r="AW16">
         <v>28105</v>
@@ -20644,7 +20642,7 @@
         <v>13675</v>
       </c>
       <c r="AJ17">
-        <v>6166</v>
+        <v>11288</v>
       </c>
       <c r="AK17">
         <v>16559</v>
@@ -20677,10 +20675,10 @@
         <v>6358</v>
       </c>
       <c r="AU17">
-        <v>24916</v>
+        <v>25340</v>
       </c>
       <c r="AV17">
-        <v>21766</v>
+        <v>22191</v>
       </c>
       <c r="AW17">
         <v>25309</v>
@@ -20793,7 +20791,7 @@
         <v>19952</v>
       </c>
       <c r="AJ18">
-        <v>12442</v>
+        <v>17565</v>
       </c>
       <c r="AK18">
         <v>22836</v>
@@ -20826,10 +20824,10 @@
         <v>5281</v>
       </c>
       <c r="AU18">
-        <v>31193</v>
+        <v>31617</v>
       </c>
       <c r="AV18">
-        <v>28043</v>
+        <v>28467</v>
       </c>
       <c r="AW18">
         <v>31586</v>
@@ -20942,7 +20940,7 @@
         <v>30146</v>
       </c>
       <c r="AJ19">
-        <v>27363</v>
+        <v>32372</v>
       </c>
       <c r="AK19">
         <v>37643</v>
@@ -21091,7 +21089,7 @@
         <v>14118</v>
       </c>
       <c r="AJ20">
-        <v>6609</v>
+        <v>11732</v>
       </c>
       <c r="AK20">
         <v>17003</v>
@@ -21124,10 +21122,10 @@
         <v>6551</v>
       </c>
       <c r="AU20">
-        <v>25360</v>
+        <v>25784</v>
       </c>
       <c r="AV20">
-        <v>22210</v>
+        <v>22634</v>
       </c>
       <c r="AW20">
         <v>25753</v>
@@ -21240,7 +21238,7 @@
         <v>21259</v>
       </c>
       <c r="AJ21">
-        <v>13749</v>
+        <v>18872</v>
       </c>
       <c r="AK21">
         <v>24143</v>
@@ -21273,10 +21271,10 @@
         <v>11940</v>
       </c>
       <c r="AU21">
-        <v>32500</v>
+        <v>32924</v>
       </c>
       <c r="AV21">
-        <v>29350</v>
+        <v>29774</v>
       </c>
       <c r="AW21">
         <v>23856</v>
@@ -21389,7 +21387,7 @@
         <v>14673</v>
       </c>
       <c r="AJ22">
-        <v>7277</v>
+        <v>12287</v>
       </c>
       <c r="AK22">
         <v>17557</v>
@@ -21422,10 +21420,10 @@
         <v>15627</v>
       </c>
       <c r="AU22">
-        <v>15135</v>
+        <v>15559</v>
       </c>
       <c r="AV22">
-        <v>11985</v>
+        <v>12410</v>
       </c>
       <c r="AW22">
         <v>15528</v>
@@ -21502,85 +21500,85 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>23579</v>
+        <v>23499</v>
       </c>
       <c r="Y23">
-        <v>21771</v>
+        <v>21692</v>
       </c>
       <c r="Z23">
-        <v>9693</v>
+        <v>9614</v>
       </c>
       <c r="AA23">
-        <v>25861</v>
+        <v>25781</v>
       </c>
       <c r="AB23">
-        <v>13550</v>
+        <v>13470</v>
       </c>
       <c r="AC23">
-        <v>8727</v>
+        <v>8647</v>
       </c>
       <c r="AD23">
-        <v>29359</v>
+        <v>29279</v>
       </c>
       <c r="AE23">
-        <v>14999</v>
+        <v>14920</v>
       </c>
       <c r="AF23">
-        <v>15962</v>
+        <v>15883</v>
       </c>
       <c r="AG23">
-        <v>18733</v>
+        <v>18653</v>
       </c>
       <c r="AH23">
-        <v>18265</v>
+        <v>18186</v>
       </c>
       <c r="AI23">
-        <v>16269</v>
+        <v>16190</v>
       </c>
       <c r="AJ23">
-        <v>8760</v>
+        <v>13804</v>
       </c>
       <c r="AK23">
-        <v>19154</v>
+        <v>19075</v>
       </c>
       <c r="AL23">
-        <v>18607</v>
+        <v>18528</v>
       </c>
       <c r="AM23">
-        <v>28759</v>
+        <v>28680</v>
       </c>
       <c r="AN23">
-        <v>33636</v>
+        <v>33557</v>
       </c>
       <c r="AO23">
-        <v>11896</v>
+        <v>11816</v>
       </c>
       <c r="AP23">
-        <v>19250</v>
+        <v>19171</v>
       </c>
       <c r="AQ23">
-        <v>18806</v>
+        <v>18727</v>
       </c>
       <c r="AR23">
-        <v>28046</v>
+        <v>27966</v>
       </c>
       <c r="AS23">
-        <v>35508</v>
+        <v>35429</v>
       </c>
       <c r="AT23">
         <v>6436</v>
       </c>
       <c r="AU23">
-        <v>27510</v>
+        <v>27856</v>
       </c>
       <c r="AV23">
-        <v>24361</v>
+        <v>24706</v>
       </c>
       <c r="AW23">
-        <v>27904</v>
+        <v>27825</v>
       </c>
       <c r="AX23">
-        <v>20110</v>
+        <v>20031</v>
       </c>
     </row>
     <row r="24" spans="2:50" x14ac:dyDescent="0.3">
@@ -21648,7 +21646,7 @@
         <v>11203</v>
       </c>
       <c r="W24">
-        <v>23579</v>
+        <v>23499</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -21687,7 +21685,7 @@
         <v>21128</v>
       </c>
       <c r="AJ24">
-        <v>18248</v>
+        <v>23257</v>
       </c>
       <c r="AK24">
         <v>28528</v>
@@ -21720,10 +21718,10 @@
         <v>26597</v>
       </c>
       <c r="AU24">
-        <v>21959</v>
+        <v>22383</v>
       </c>
       <c r="AV24">
-        <v>18809</v>
+        <v>19233</v>
       </c>
       <c r="AW24">
         <v>4408</v>
@@ -21797,7 +21795,7 @@
         <v>9395</v>
       </c>
       <c r="W25">
-        <v>21771</v>
+        <v>21692</v>
       </c>
       <c r="X25">
         <v>16219</v>
@@ -21836,7 +21834,7 @@
         <v>5594</v>
       </c>
       <c r="AJ25">
-        <v>12985</v>
+        <v>15102</v>
       </c>
       <c r="AK25">
         <v>11643</v>
@@ -21946,7 +21944,7 @@
         <v>3500</v>
       </c>
       <c r="W26">
-        <v>9693</v>
+        <v>9614</v>
       </c>
       <c r="X26">
         <v>14470</v>
@@ -21958,13 +21956,13 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>21349</v>
+        <v>21570</v>
       </c>
       <c r="AB26">
         <v>13008</v>
       </c>
       <c r="AC26">
-        <v>4215</v>
+        <v>4436</v>
       </c>
       <c r="AD26">
         <v>20114</v>
@@ -21973,7 +21971,7 @@
         <v>5890</v>
       </c>
       <c r="AF26">
-        <v>11451</v>
+        <v>11671</v>
       </c>
       <c r="AG26">
         <v>18760</v>
@@ -21982,13 +21980,13 @@
         <v>9157</v>
       </c>
       <c r="AI26">
-        <v>11758</v>
+        <v>11978</v>
       </c>
       <c r="AJ26">
-        <v>4362</v>
+        <v>9592</v>
       </c>
       <c r="AK26">
-        <v>14642</v>
+        <v>14863</v>
       </c>
       <c r="AL26">
         <v>9498</v>
@@ -22003,10 +22001,10 @@
         <v>14187</v>
       </c>
       <c r="AP26">
-        <v>14739</v>
+        <v>14959</v>
       </c>
       <c r="AQ26">
-        <v>22650</v>
+        <v>22870</v>
       </c>
       <c r="AR26">
         <v>18937</v>
@@ -22015,13 +22013,13 @@
         <v>26399</v>
       </c>
       <c r="AT26">
-        <v>12712</v>
+        <v>12932</v>
       </c>
       <c r="AU26">
-        <v>18402</v>
+        <v>18826</v>
       </c>
       <c r="AV26">
-        <v>15252</v>
+        <v>15677</v>
       </c>
       <c r="AW26">
         <v>18795</v>
@@ -22095,7 +22093,7 @@
         <v>17565</v>
       </c>
       <c r="W27">
-        <v>25861</v>
+        <v>25781</v>
       </c>
       <c r="X27">
         <v>24388</v>
@@ -22104,7 +22102,7 @@
         <v>8553</v>
       </c>
       <c r="Z27">
-        <v>21349</v>
+        <v>21570</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -22134,7 +22132,7 @@
         <v>9591</v>
       </c>
       <c r="AJ27">
-        <v>17180</v>
+        <v>19297</v>
       </c>
       <c r="AK27">
         <v>9700</v>
@@ -22244,7 +22242,7 @@
         <v>9741</v>
       </c>
       <c r="W28">
-        <v>13550</v>
+        <v>13470</v>
       </c>
       <c r="X28">
         <v>8619</v>
@@ -22283,7 +22281,7 @@
         <v>19666</v>
       </c>
       <c r="AJ28">
-        <v>16785</v>
+        <v>21794</v>
       </c>
       <c r="AK28">
         <v>27065</v>
@@ -22316,10 +22314,10 @@
         <v>25135</v>
       </c>
       <c r="AU28">
-        <v>20496</v>
+        <v>20920</v>
       </c>
       <c r="AV28">
-        <v>17346</v>
+        <v>17771</v>
       </c>
       <c r="AW28">
         <v>12944</v>
@@ -22393,7 +22391,7 @@
         <v>7130</v>
       </c>
       <c r="W29">
-        <v>8727</v>
+        <v>8647</v>
       </c>
       <c r="X29">
         <v>18101</v>
@@ -22402,7 +22400,7 @@
         <v>12938</v>
       </c>
       <c r="Z29">
-        <v>4215</v>
+        <v>4436</v>
       </c>
       <c r="AA29">
         <v>17134</v>
@@ -22432,7 +22430,7 @@
         <v>7543</v>
       </c>
       <c r="AJ29">
-        <v>257</v>
+        <v>5156</v>
       </c>
       <c r="AK29">
         <v>10427</v>
@@ -22465,10 +22463,10 @@
         <v>11745</v>
       </c>
       <c r="AU29">
-        <v>22033</v>
+        <v>22457</v>
       </c>
       <c r="AV29">
-        <v>18883</v>
+        <v>19307</v>
       </c>
       <c r="AW29">
         <v>22426</v>
@@ -22542,7 +22540,7 @@
         <v>16847</v>
       </c>
       <c r="W30">
-        <v>29359</v>
+        <v>29279</v>
       </c>
       <c r="X30">
         <v>23671</v>
@@ -22581,7 +22579,7 @@
         <v>13089</v>
       </c>
       <c r="AJ30">
-        <v>20678</v>
+        <v>22795</v>
       </c>
       <c r="AK30">
         <v>13198</v>
@@ -22691,7 +22689,7 @@
         <v>2623</v>
       </c>
       <c r="W31">
-        <v>14999</v>
+        <v>14920</v>
       </c>
       <c r="X31">
         <v>13594</v>
@@ -22730,7 +22728,7 @@
         <v>11695</v>
       </c>
       <c r="AJ31">
-        <v>9668</v>
+        <v>14677</v>
       </c>
       <c r="AK31">
         <v>19948</v>
@@ -22840,7 +22838,7 @@
         <v>14366</v>
       </c>
       <c r="W32">
-        <v>15962</v>
+        <v>15883</v>
       </c>
       <c r="X32">
         <v>25336</v>
@@ -22849,7 +22847,7 @@
         <v>17181</v>
       </c>
       <c r="Z32">
-        <v>11451</v>
+        <v>11671</v>
       </c>
       <c r="AA32">
         <v>21376</v>
@@ -22879,7 +22877,7 @@
         <v>11785</v>
       </c>
       <c r="AJ32">
-        <v>7282</v>
+        <v>3792</v>
       </c>
       <c r="AK32">
         <v>3355</v>
@@ -22912,10 +22910,10 @@
         <v>18981</v>
       </c>
       <c r="AU32">
-        <v>29268</v>
+        <v>29692</v>
       </c>
       <c r="AV32">
-        <v>26118</v>
+        <v>26543</v>
       </c>
       <c r="AW32">
         <v>29661</v>
@@ -22989,7 +22987,7 @@
         <v>15493</v>
       </c>
       <c r="W33">
-        <v>18733</v>
+        <v>18653</v>
       </c>
       <c r="X33">
         <v>14371</v>
@@ -23028,7 +23026,7 @@
         <v>25419</v>
       </c>
       <c r="AJ33">
-        <v>22538</v>
+        <v>27547</v>
       </c>
       <c r="AK33">
         <v>32818</v>
@@ -23061,10 +23059,10 @@
         <v>30888</v>
       </c>
       <c r="AU33">
-        <v>26249</v>
+        <v>26673</v>
       </c>
       <c r="AV33">
-        <v>23099</v>
+        <v>23524</v>
       </c>
       <c r="AW33">
         <v>18697</v>
@@ -23138,7 +23136,7 @@
         <v>5890</v>
       </c>
       <c r="W34">
-        <v>18265</v>
+        <v>18186</v>
       </c>
       <c r="X34">
         <v>12714</v>
@@ -23177,7 +23175,7 @@
         <v>8415</v>
       </c>
       <c r="AJ34">
-        <v>12935</v>
+        <v>17944</v>
       </c>
       <c r="AK34">
         <v>14464</v>
@@ -23287,7 +23285,7 @@
         <v>14673</v>
       </c>
       <c r="W35">
-        <v>16269</v>
+        <v>16190</v>
       </c>
       <c r="X35">
         <v>21128</v>
@@ -23296,7 +23294,7 @@
         <v>5594</v>
       </c>
       <c r="Z35">
-        <v>11758</v>
+        <v>11978</v>
       </c>
       <c r="AA35">
         <v>9591</v>
@@ -23326,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>7589</v>
+        <v>9706</v>
       </c>
       <c r="AK35">
         <v>6049</v>
@@ -23373,151 +23371,151 @@
     </row>
     <row r="36" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>8087</v>
+        <v>13210</v>
       </c>
       <c r="C36">
-        <v>6895</v>
+        <v>12018</v>
       </c>
       <c r="D36">
-        <v>15261</v>
+        <v>20270</v>
       </c>
       <c r="E36">
-        <v>7214</v>
+        <v>12336</v>
       </c>
       <c r="F36">
-        <v>7390</v>
+        <v>12513</v>
       </c>
       <c r="G36">
-        <v>21302</v>
+        <v>26311</v>
       </c>
       <c r="H36">
-        <v>6523</v>
+        <v>11646</v>
       </c>
       <c r="I36">
-        <v>7500</v>
+        <v>12623</v>
       </c>
       <c r="J36">
-        <v>26819</v>
+        <v>31828</v>
       </c>
       <c r="K36">
-        <v>6228</v>
+        <v>11351</v>
       </c>
       <c r="L36">
-        <v>7230</v>
+        <v>12353</v>
       </c>
       <c r="M36">
-        <v>7944</v>
+        <v>13067</v>
       </c>
       <c r="N36">
-        <v>7683</v>
+        <v>12805</v>
       </c>
       <c r="O36">
-        <v>30164</v>
+        <v>35173</v>
       </c>
       <c r="P36">
-        <v>8961</v>
+        <v>14084</v>
       </c>
       <c r="Q36">
-        <v>6166</v>
+        <v>11288</v>
       </c>
       <c r="R36">
-        <v>12442</v>
+        <v>17565</v>
       </c>
       <c r="S36">
-        <v>27363</v>
+        <v>32372</v>
       </c>
       <c r="T36">
-        <v>6609</v>
+        <v>11732</v>
       </c>
       <c r="U36">
-        <v>13749</v>
+        <v>18872</v>
       </c>
       <c r="V36">
-        <v>7277</v>
+        <v>12287</v>
       </c>
       <c r="W36">
-        <v>8760</v>
+        <v>13804</v>
       </c>
       <c r="X36">
-        <v>18248</v>
+        <v>23257</v>
       </c>
       <c r="Y36">
-        <v>12985</v>
+        <v>15102</v>
       </c>
       <c r="Z36">
-        <v>4362</v>
+        <v>9592</v>
       </c>
       <c r="AA36">
-        <v>17180</v>
+        <v>19297</v>
       </c>
       <c r="AB36">
-        <v>16785</v>
+        <v>21794</v>
       </c>
       <c r="AC36">
-        <v>257</v>
+        <v>5156</v>
       </c>
       <c r="AD36">
-        <v>20678</v>
+        <v>22795</v>
       </c>
       <c r="AE36">
-        <v>9668</v>
+        <v>14677</v>
       </c>
       <c r="AF36">
-        <v>7282</v>
+        <v>3792</v>
       </c>
       <c r="AG36">
-        <v>22538</v>
+        <v>27547</v>
       </c>
       <c r="AH36">
-        <v>12935</v>
+        <v>17944</v>
       </c>
       <c r="AI36">
-        <v>7589</v>
+        <v>9706</v>
       </c>
       <c r="AJ36">
         <v>0</v>
       </c>
       <c r="AK36">
-        <v>10429</v>
+        <v>6983</v>
       </c>
       <c r="AL36">
-        <v>13276</v>
+        <v>18285</v>
       </c>
       <c r="AM36">
-        <v>23429</v>
+        <v>28438</v>
       </c>
       <c r="AN36">
-        <v>28306</v>
+        <v>33315</v>
       </c>
       <c r="AO36">
-        <v>14807</v>
+        <v>19929</v>
       </c>
       <c r="AP36">
-        <v>10526</v>
+        <v>7080</v>
       </c>
       <c r="AQ36">
-        <v>21717</v>
+        <v>26840</v>
       </c>
       <c r="AR36">
-        <v>22715</v>
+        <v>27724</v>
       </c>
       <c r="AS36">
-        <v>30177</v>
+        <v>35186</v>
       </c>
       <c r="AT36">
-        <v>11779</v>
+        <v>16901</v>
       </c>
       <c r="AU36">
-        <v>22180</v>
+        <v>27613</v>
       </c>
       <c r="AV36">
-        <v>19030</v>
+        <v>24463</v>
       </c>
       <c r="AW36">
-        <v>22573</v>
+        <v>27582</v>
       </c>
       <c r="AX36">
-        <v>14779</v>
+        <v>19788</v>
       </c>
     </row>
     <row r="37" spans="2:50" x14ac:dyDescent="0.3">
@@ -23561,7 +23559,7 @@
         <v>18076</v>
       </c>
       <c r="O37">
-        <v>26510</v>
+        <v>40444</v>
       </c>
       <c r="P37">
         <v>19355</v>
@@ -23585,7 +23583,7 @@
         <v>17557</v>
       </c>
       <c r="W37">
-        <v>19154</v>
+        <v>19075</v>
       </c>
       <c r="X37">
         <v>28528</v>
@@ -23594,7 +23592,7 @@
         <v>11643</v>
       </c>
       <c r="Z37">
-        <v>14642</v>
+        <v>14863</v>
       </c>
       <c r="AA37">
         <v>9700</v>
@@ -23624,7 +23622,7 @@
         <v>6049</v>
       </c>
       <c r="AJ37">
-        <v>10429</v>
+        <v>6983</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -23657,10 +23655,10 @@
         <v>22172</v>
       </c>
       <c r="AU37">
-        <v>24166</v>
+        <v>32884</v>
       </c>
       <c r="AV37">
-        <v>21016</v>
+        <v>29734</v>
       </c>
       <c r="AW37">
         <v>32853</v>
@@ -23734,7 +23732,7 @@
         <v>6231</v>
       </c>
       <c r="W38">
-        <v>18607</v>
+        <v>18528</v>
       </c>
       <c r="X38">
         <v>5172</v>
@@ -23773,7 +23771,7 @@
         <v>16157</v>
       </c>
       <c r="AJ38">
-        <v>13276</v>
+        <v>18285</v>
       </c>
       <c r="AK38">
         <v>23556</v>
@@ -23806,10 +23804,10 @@
         <v>21625</v>
       </c>
       <c r="AU38">
-        <v>16987</v>
+        <v>17411</v>
       </c>
       <c r="AV38">
-        <v>13837</v>
+        <v>14262</v>
       </c>
       <c r="AW38">
         <v>9497</v>
@@ -23883,7 +23881,7 @@
         <v>16384</v>
       </c>
       <c r="W39">
-        <v>28759</v>
+        <v>28680</v>
       </c>
       <c r="X39">
         <v>5329</v>
@@ -23922,7 +23920,7 @@
         <v>26212</v>
       </c>
       <c r="AJ39">
-        <v>23429</v>
+        <v>28438</v>
       </c>
       <c r="AK39">
         <v>33709</v>
@@ -24005,7 +24003,7 @@
         <v>32820</v>
       </c>
       <c r="N40">
-        <v>36190</v>
+        <v>32559</v>
       </c>
       <c r="O40">
         <v>33793</v>
@@ -24032,7 +24030,7 @@
         <v>21261</v>
       </c>
       <c r="W40">
-        <v>33636</v>
+        <v>33557</v>
       </c>
       <c r="X40">
         <v>10141</v>
@@ -24071,7 +24069,7 @@
         <v>31186</v>
       </c>
       <c r="AJ40">
-        <v>28306</v>
+        <v>33315</v>
       </c>
       <c r="AK40">
         <v>38585</v>
@@ -24181,7 +24179,7 @@
         <v>10920</v>
       </c>
       <c r="W41">
-        <v>11896</v>
+        <v>11816</v>
       </c>
       <c r="X41">
         <v>9798</v>
@@ -24220,7 +24218,7 @@
         <v>22316</v>
       </c>
       <c r="AJ41">
-        <v>14807</v>
+        <v>19929</v>
       </c>
       <c r="AK41">
         <v>25200</v>
@@ -24253,10 +24251,10 @@
         <v>26314</v>
       </c>
       <c r="AU41">
-        <v>21675</v>
+        <v>22100</v>
       </c>
       <c r="AV41">
-        <v>18526</v>
+        <v>18950</v>
       </c>
       <c r="AW41">
         <v>14124</v>
@@ -24330,7 +24328,7 @@
         <v>17654</v>
       </c>
       <c r="W42">
-        <v>19250</v>
+        <v>19171</v>
       </c>
       <c r="X42">
         <v>28624</v>
@@ -24339,7 +24337,7 @@
         <v>20469</v>
       </c>
       <c r="Z42">
-        <v>14739</v>
+        <v>14959</v>
       </c>
       <c r="AA42">
         <v>13657</v>
@@ -24369,7 +24367,7 @@
         <v>15073</v>
       </c>
       <c r="AJ42">
-        <v>10526</v>
+        <v>7080</v>
       </c>
       <c r="AK42">
         <v>3966</v>
@@ -24402,10 +24400,10 @@
         <v>19694</v>
       </c>
       <c r="AU42">
-        <v>32556</v>
+        <v>32980</v>
       </c>
       <c r="AV42">
-        <v>29406</v>
+        <v>29831</v>
       </c>
       <c r="AW42">
         <v>32949</v>
@@ -24416,7 +24414,7 @@
     </row>
     <row r="43" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>10236</v>
+        <v>18133</v>
       </c>
       <c r="C43">
         <v>15749</v>
@@ -24479,7 +24477,7 @@
         <v>25565</v>
       </c>
       <c r="W43">
-        <v>18806</v>
+        <v>18727</v>
       </c>
       <c r="X43">
         <v>25717</v>
@@ -24488,7 +24486,7 @@
         <v>34728</v>
       </c>
       <c r="Z43">
-        <v>22650</v>
+        <v>22870</v>
       </c>
       <c r="AA43">
         <v>38817</v>
@@ -24518,7 +24516,7 @@
         <v>29226</v>
       </c>
       <c r="AJ43">
-        <v>21717</v>
+        <v>26840</v>
       </c>
       <c r="AK43">
         <v>32111</v>
@@ -24551,10 +24549,10 @@
         <v>12716</v>
       </c>
       <c r="AU43">
-        <v>31556</v>
+        <v>31980</v>
       </c>
       <c r="AV43">
-        <v>28406</v>
+        <v>28831</v>
       </c>
       <c r="AW43">
         <v>22913</v>
@@ -24628,7 +24626,7 @@
         <v>15670</v>
       </c>
       <c r="W44">
-        <v>28046</v>
+        <v>27966</v>
       </c>
       <c r="X44">
         <v>22494</v>
@@ -24667,7 +24665,7 @@
         <v>25498</v>
       </c>
       <c r="AJ44">
-        <v>22715</v>
+        <v>27724</v>
       </c>
       <c r="AK44">
         <v>32995</v>
@@ -24703,7 +24701,7 @@
         <v>10881</v>
       </c>
       <c r="AV44">
-        <v>14009</v>
+        <v>17795</v>
       </c>
       <c r="AW44">
         <v>20611</v>
@@ -24777,7 +24775,7 @@
         <v>23132</v>
       </c>
       <c r="W45">
-        <v>35508</v>
+        <v>35429</v>
       </c>
       <c r="X45">
         <v>12954</v>
@@ -24816,7 +24814,7 @@
         <v>32960</v>
       </c>
       <c r="AJ45">
-        <v>30177</v>
+        <v>35186</v>
       </c>
       <c r="AK45">
         <v>40457</v>
@@ -24935,7 +24933,7 @@
         <v>24789</v>
       </c>
       <c r="Z46">
-        <v>12712</v>
+        <v>12932</v>
       </c>
       <c r="AA46">
         <v>28879</v>
@@ -24965,7 +24963,7 @@
         <v>19288</v>
       </c>
       <c r="AJ46">
-        <v>11779</v>
+        <v>16901</v>
       </c>
       <c r="AK46">
         <v>22172</v>
@@ -24998,10 +24996,10 @@
         <v>0</v>
       </c>
       <c r="AU46">
-        <v>30516</v>
+        <v>30941</v>
       </c>
       <c r="AV46">
-        <v>27367</v>
+        <v>27791</v>
       </c>
       <c r="AW46">
         <v>30910</v>
@@ -25012,88 +25010,88 @@
     </row>
     <row r="47" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>26838</v>
+        <v>27262</v>
       </c>
       <c r="C47">
-        <v>25646</v>
+        <v>26070</v>
       </c>
       <c r="D47">
         <v>13491</v>
       </c>
       <c r="E47">
-        <v>25964</v>
+        <v>26388</v>
       </c>
       <c r="F47">
-        <v>26140</v>
+        <v>26564</v>
       </c>
       <c r="G47">
         <v>19533</v>
       </c>
       <c r="H47">
-        <v>25273</v>
+        <v>25698</v>
       </c>
       <c r="I47">
-        <v>26250</v>
+        <v>26675</v>
       </c>
       <c r="J47">
         <v>6703</v>
       </c>
       <c r="K47">
-        <v>24979</v>
+        <v>25403</v>
       </c>
       <c r="L47">
-        <v>25980</v>
+        <v>26405</v>
       </c>
       <c r="M47">
-        <v>26694</v>
+        <v>27119</v>
       </c>
       <c r="N47">
-        <v>26433</v>
+        <v>26857</v>
       </c>
       <c r="O47">
         <v>10963</v>
       </c>
       <c r="P47">
-        <v>27711</v>
+        <v>28136</v>
       </c>
       <c r="Q47">
-        <v>24916</v>
+        <v>25340</v>
       </c>
       <c r="R47">
-        <v>31193</v>
+        <v>31617</v>
       </c>
       <c r="S47">
         <v>25593</v>
       </c>
       <c r="T47">
-        <v>25360</v>
+        <v>25784</v>
       </c>
       <c r="U47">
-        <v>32500</v>
+        <v>32924</v>
       </c>
       <c r="V47">
-        <v>15135</v>
+        <v>15559</v>
       </c>
       <c r="W47">
-        <v>27510</v>
+        <v>27856</v>
       </c>
       <c r="X47">
-        <v>21959</v>
+        <v>22383</v>
       </c>
       <c r="Y47">
         <v>13208</v>
       </c>
       <c r="Z47">
-        <v>18402</v>
+        <v>18826</v>
       </c>
       <c r="AA47">
         <v>18694</v>
       </c>
       <c r="AB47">
-        <v>20496</v>
+        <v>20920</v>
       </c>
       <c r="AC47">
-        <v>22033</v>
+        <v>22457</v>
       </c>
       <c r="AD47">
         <v>12303</v>
@@ -25102,10 +25100,10 @@
         <v>12525</v>
       </c>
       <c r="AF47">
-        <v>29268</v>
+        <v>29692</v>
       </c>
       <c r="AG47">
-        <v>26249</v>
+        <v>26673</v>
       </c>
       <c r="AH47">
         <v>9702</v>
@@ -25114,13 +25112,13 @@
         <v>18117</v>
       </c>
       <c r="AJ47">
-        <v>22180</v>
+        <v>27613</v>
       </c>
       <c r="AK47">
-        <v>24166</v>
+        <v>32884</v>
       </c>
       <c r="AL47">
-        <v>16987</v>
+        <v>17411</v>
       </c>
       <c r="AM47">
         <v>21606</v>
@@ -25129,13 +25127,13 @@
         <v>31110</v>
       </c>
       <c r="AO47">
-        <v>21675</v>
+        <v>22100</v>
       </c>
       <c r="AP47">
-        <v>32556</v>
+        <v>32980</v>
       </c>
       <c r="AQ47">
-        <v>31556</v>
+        <v>31980</v>
       </c>
       <c r="AR47">
         <v>10881</v>
@@ -25144,7 +25142,7 @@
         <v>28354</v>
       </c>
       <c r="AT47">
-        <v>30516</v>
+        <v>30941</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -25161,88 +25159,88 @@
     </row>
     <row r="48" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>23688</v>
+        <v>24112</v>
       </c>
       <c r="C48">
-        <v>22496</v>
+        <v>22920</v>
       </c>
       <c r="D48">
         <v>10342</v>
       </c>
       <c r="E48">
-        <v>22814</v>
+        <v>23239</v>
       </c>
       <c r="F48">
-        <v>22991</v>
+        <v>23415</v>
       </c>
       <c r="G48">
         <v>16383</v>
       </c>
       <c r="H48">
-        <v>22124</v>
+        <v>22548</v>
       </c>
       <c r="I48">
-        <v>23101</v>
+        <v>23525</v>
       </c>
       <c r="J48">
         <v>9830</v>
       </c>
       <c r="K48">
-        <v>21829</v>
+        <v>22253</v>
       </c>
       <c r="L48">
-        <v>22831</v>
+        <v>23255</v>
       </c>
       <c r="M48">
-        <v>23545</v>
+        <v>23969</v>
       </c>
       <c r="N48">
-        <v>23283</v>
+        <v>23707</v>
       </c>
       <c r="O48">
         <v>14091</v>
       </c>
       <c r="P48">
-        <v>24562</v>
+        <v>24986</v>
       </c>
       <c r="Q48">
-        <v>21766</v>
+        <v>22191</v>
       </c>
       <c r="R48">
-        <v>28043</v>
+        <v>28467</v>
       </c>
       <c r="S48">
         <v>22444</v>
       </c>
       <c r="T48">
-        <v>22210</v>
+        <v>22634</v>
       </c>
       <c r="U48">
-        <v>29350</v>
+        <v>29774</v>
       </c>
       <c r="V48">
-        <v>11985</v>
+        <v>12410</v>
       </c>
       <c r="W48">
-        <v>24361</v>
+        <v>24706</v>
       </c>
       <c r="X48">
-        <v>18809</v>
+        <v>19233</v>
       </c>
       <c r="Y48">
         <v>10058</v>
       </c>
       <c r="Z48">
-        <v>15252</v>
+        <v>15677</v>
       </c>
       <c r="AA48">
         <v>18227</v>
       </c>
       <c r="AB48">
-        <v>17346</v>
+        <v>17771</v>
       </c>
       <c r="AC48">
-        <v>18883</v>
+        <v>19307</v>
       </c>
       <c r="AD48">
         <v>17510</v>
@@ -25251,10 +25249,10 @@
         <v>9375</v>
       </c>
       <c r="AF48">
-        <v>26118</v>
+        <v>26543</v>
       </c>
       <c r="AG48">
-        <v>23099</v>
+        <v>23524</v>
       </c>
       <c r="AH48">
         <v>6553</v>
@@ -25263,13 +25261,13 @@
         <v>14967</v>
       </c>
       <c r="AJ48">
-        <v>19030</v>
+        <v>24463</v>
       </c>
       <c r="AK48">
-        <v>21016</v>
+        <v>29734</v>
       </c>
       <c r="AL48">
-        <v>13837</v>
+        <v>14262</v>
       </c>
       <c r="AM48">
         <v>18456</v>
@@ -25278,22 +25276,22 @@
         <v>27961</v>
       </c>
       <c r="AO48">
-        <v>18526</v>
+        <v>18950</v>
       </c>
       <c r="AP48">
-        <v>29406</v>
+        <v>29831</v>
       </c>
       <c r="AQ48">
-        <v>28406</v>
+        <v>28831</v>
       </c>
       <c r="AR48">
-        <v>14009</v>
+        <v>17795</v>
       </c>
       <c r="AS48">
         <v>25204</v>
       </c>
       <c r="AT48">
-        <v>27367</v>
+        <v>27791</v>
       </c>
       <c r="AU48">
         <v>3128</v>
@@ -25373,7 +25371,7 @@
         <v>15528</v>
       </c>
       <c r="W49">
-        <v>27904</v>
+        <v>27825</v>
       </c>
       <c r="X49">
         <v>4408</v>
@@ -25412,7 +25410,7 @@
         <v>25454</v>
       </c>
       <c r="AJ49">
-        <v>22573</v>
+        <v>27582</v>
       </c>
       <c r="AK49">
         <v>32853</v>
@@ -25522,7 +25520,7 @@
         <v>7734</v>
       </c>
       <c r="W50">
-        <v>20110</v>
+        <v>20031</v>
       </c>
       <c r="X50">
         <v>14558</v>
@@ -25561,7 +25559,7 @@
         <v>11398</v>
       </c>
       <c r="AJ50">
-        <v>14779</v>
+        <v>19788</v>
       </c>
       <c r="AK50">
         <v>25059</v>
